--- a/it_api/wwwroot/report/excel/Bảng chấm công.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng chấm công.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59D391-90D5-4B5E-9297-E738A4DACDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC4FA6-22B5-4F3C-8DC1-E72F812237CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IT" sheetId="9" r:id="rId1"/>
-    <sheet name="Vu" sheetId="11" r:id="rId2"/>
+    <sheet name="Nhân viên" sheetId="9" r:id="rId1"/>
+    <sheet name="Dịch vụ" sheetId="10" r:id="rId2"/>
+    <sheet name="Vệ sinh-Bảo vệ-T7" sheetId="11" r:id="rId3"/>
+    <sheet name="Full công" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -273,7 +274,7 @@
     <author>WELLCOM</author>
   </authors>
   <commentList>
-    <comment ref="BK6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="BM6" authorId="0" shapeId="0" xr:uid="{03619A2D-5550-41A1-B816-1E01A6B65A32}">
       <text>
         <r>
           <rPr>
@@ -297,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="BN6" authorId="0" shapeId="0" xr:uid="{BB7F64D8-E4FF-42AF-9DD8-B6EC937ECB86}">
       <text>
         <r>
           <rPr>
@@ -321,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="BO6" authorId="1" shapeId="0" xr:uid="{0072B4CB-E287-4230-B035-988C3A28B7E4}">
       <text>
         <r>
           <rPr>
@@ -355,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="BP6" authorId="1" shapeId="0" xr:uid="{A589F699-B234-40F0-989A-D13FB0E95E2B}">
       <text>
         <r>
           <rPr>
@@ -380,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="BQ6" authorId="1" shapeId="0" xr:uid="{4D6C3163-4092-4F14-B72A-3354FEA801BD}">
       <text>
         <r>
           <rPr>
@@ -394,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="BR6" authorId="1" shapeId="0" xr:uid="{5287F129-0B85-4F86-871F-E11AE9D2E163}">
       <text>
         <r>
           <rPr>
@@ -418,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="BS6" authorId="1" shapeId="0" xr:uid="{10BBE2A6-EA8A-4037-AB04-648096ADB9D2}">
       <text>
         <r>
           <rPr>
@@ -442,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="BT6" authorId="1" shapeId="0" xr:uid="{CDA19699-0859-4043-9807-5B4FECBA1C94}">
       <text>
         <r>
           <rPr>
@@ -466,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="BU6" authorId="0" shapeId="0" xr:uid="{69B772D5-21B9-474B-A7A2-00AAE794C05C}">
       <text>
         <r>
           <rPr>
@@ -490,7 +491,42 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI7" authorId="0" shapeId="0" xr:uid="{636017BF-38D9-4E27-AFF2-AEDE53229182}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>AH</author>
+    <author>WELLCOM</author>
+  </authors>
+  <commentList>
+    <comment ref="BM6" authorId="0" shapeId="0" xr:uid="{BBFBD9FF-BD07-40FA-99BA-BB0FE02EAE13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ngày công đi làm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN6" authorId="0" shapeId="0" xr:uid="{30AA87E0-1AF4-4C74-9262-6845CFBB5E19}">
       <text>
         <r>
           <rPr>
@@ -514,7 +550,211 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ7" authorId="0" shapeId="0" xr:uid="{3FB0970C-77FE-4326-9C2C-CED02A4A7A6A}">
+    <comment ref="BO6" authorId="1" shapeId="0" xr:uid="{ED9BAEFC-51B0-40E8-B4D9-A033FE9A5EC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AH:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày nghỉ lễ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP6" authorId="1" shapeId="0" xr:uid="{8F6E5F62-6993-4486-A3A2-6116DE07B9CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">HA:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nghỉ do ốm
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ6" authorId="1" shapeId="0" xr:uid="{4956D5E1-6468-4C13-B832-24C20CB0D241}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nghỉ chế độ việc riêng hưởng lương (cưới,..)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR6" authorId="1" shapeId="0" xr:uid="{EBDDFE01-04A9-41E5-9551-654158CBCB39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nghỉ thai sản</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS6" authorId="1" shapeId="0" xr:uid="{D39DEF0C-3D93-4465-8013-5534F65FFA3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nghỉ do tai nạn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT6" authorId="1" shapeId="0" xr:uid="{52F0006E-61F6-411E-854F-0120C2C2084C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nghỉ xưởng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU6" authorId="0" shapeId="0" xr:uid="{01DB6EE6-17CC-4BF8-9133-0E98956DFFEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ngày nghỉ không lương</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>AH</author>
+    <author>WELLCOM</author>
+  </authors>
+  <commentList>
+    <comment ref="BM6" authorId="0" shapeId="0" xr:uid="{D327B4F4-6757-48D3-8A89-B3A89F8D83DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ngày công đi làm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN6" authorId="0" shapeId="0" xr:uid="{53ACC894-8CAB-4425-A0EF-52C6987254CF}">
       <text>
         <r>
           <rPr>
@@ -538,12 +778,181 @@
         </r>
       </text>
     </comment>
+    <comment ref="BO6" authorId="1" shapeId="0" xr:uid="{A6F4DB60-A948-481B-8850-1A89BD44B480}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AH:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày nghỉ lễ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP6" authorId="1" shapeId="0" xr:uid="{03C12A12-6EBD-4B28-B480-66B47BD96D91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">HA:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nghỉ do ốm
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ6" authorId="1" shapeId="0" xr:uid="{717C0FF8-7AB6-4906-8B28-4757EB43CC9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nghỉ chế độ việc riêng hưởng lương (cưới,..)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR6" authorId="1" shapeId="0" xr:uid="{3978DE23-B213-478D-A0EF-9E5E0A559844}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nghỉ thai sản</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS6" authorId="1" shapeId="0" xr:uid="{B13571E9-A0F3-4EBA-A5BB-770C9C074858}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nghỉ do tai nạn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT6" authorId="1" shapeId="0" xr:uid="{6D0F295F-961F-4779-9130-92DF8A9DAA2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nghỉ xưởng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU6" authorId="0" shapeId="0" xr:uid="{BACB15D3-16C0-42A3-A148-2B11E12405C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ngày nghỉ không lương</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="40">
   <si>
     <t>Hiệu lực từ ngày</t>
   </si>
@@ -703,10 +1112,10 @@
     <t>Ngày công chuẩn</t>
   </si>
   <si>
-    <t>Nguyễn Lê Vũ</t>
+    <t>Ngày nghỉ</t>
   </si>
   <si>
-    <t>Ngày nghỉ</t>
+    <t>Đông Hòa, ngày 25 tháng 09 năm 2024</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1612,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1304,9 +1713,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1470,7 +1876,49 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1566,8 +2014,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1686,7 +2134,313 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="9b08b772-fc3c-41a8-87cd-1b38d521eac5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C97ED3-1654-405D-95D2-454E5B9F4A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590551" y="87936"/>
+          <a:ext cx="1066800" cy="437844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="9b08b772-fc3c-41a8-87cd-1b38d521eac5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED1A403-93B0-438D-8FF9-C2791112C833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590551" y="87936"/>
+          <a:ext cx="1066800" cy="437844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="9b08b772-fc3c-41a8-87cd-1b38d521eac5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1112DB3-2D34-4924-8ABE-481C69B1F0C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590551" y="87936"/>
+          <a:ext cx="1066800" cy="437844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="9b08b772-fc3c-41a8-87cd-1b38d521eac5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3347D28-8D15-4B41-9D9F-606D2326CB04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590551" y="87936"/>
+          <a:ext cx="1066800" cy="437844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="9b08b772-fc3c-41a8-87cd-1b38d521eac5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E773E9-9D21-4909-B353-28DD1C5569B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,8 +2788,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:J11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="BW7" sqref="BW7:BX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2054,55 +2811,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="27" x14ac:dyDescent="0.2">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
@@ -2133,69 +2890,69 @@
       <c r="BX1" s="2"/>
     </row>
     <row r="2" spans="1:107" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="82">
-        <v>45474</v>
-      </c>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="81">
+        <v>45536</v>
+      </c>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
     </row>
     <row r="3" spans="1:107" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63">
-        <v>45469</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="C3" s="62">
+        <v>45530</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="J3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
       <c r="T3" s="6"/>
       <c r="U3" s="4"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="BM3" s="54">
+      <c r="BM3" s="53">
         <f>BV7</f>
         <v>0</v>
       </c>
-      <c r="BN3" s="54"/>
-      <c r="BO3" s="53" t="s">
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="53"/>
-      <c r="BR3" s="53"/>
-      <c r="BS3" s="53"/>
-      <c r="BT3" s="53"/>
-      <c r="BU3" s="53"/>
-      <c r="BV3" s="53"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="52"/>
     </row>
     <row r="4" spans="1:107" ht="27" x14ac:dyDescent="0.35">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
@@ -2205,385 +2962,385 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
       <c r="U4" s="7"/>
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:107" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="55">
         <f>C3</f>
-        <v>45469</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="56">
+        <v>45530</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="55">
         <f>C5+1</f>
-        <v>45470</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56">
+        <v>45531</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55">
         <f t="shared" ref="G5:G6" si="0">E5+1</f>
-        <v>45471</v>
-      </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56">
+        <v>45532</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="55">
         <f t="shared" ref="I5:I6" si="1">G5+1</f>
-        <v>45472</v>
-      </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="56">
+        <v>45533</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55">
         <f t="shared" ref="K5:K6" si="2">I5+1</f>
-        <v>45473</v>
-      </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="56">
+        <v>45534</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="55">
         <f t="shared" ref="M5:M6" si="3">K5+1</f>
-        <v>45474</v>
-      </c>
-      <c r="N5" s="57"/>
-      <c r="O5" s="56">
+        <v>45535</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="O5" s="55">
         <f t="shared" ref="O5:O6" si="4">M5+1</f>
-        <v>45475</v>
-      </c>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="56">
+        <v>45536</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="55">
         <f t="shared" ref="Q5:Q6" si="5">O5+1</f>
-        <v>45476</v>
-      </c>
-      <c r="R5" s="57"/>
-      <c r="S5" s="56">
+        <v>45537</v>
+      </c>
+      <c r="R5" s="56"/>
+      <c r="S5" s="55">
         <f t="shared" ref="S5:S6" si="6">Q5+1</f>
-        <v>45477</v>
-      </c>
-      <c r="T5" s="57"/>
-      <c r="U5" s="56">
+        <v>45538</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55">
         <f t="shared" ref="U5:U6" si="7">S5+1</f>
-        <v>45478</v>
-      </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="56">
+        <v>45539</v>
+      </c>
+      <c r="V5" s="56"/>
+      <c r="W5" s="55">
         <f t="shared" ref="W5:W6" si="8">U5+1</f>
-        <v>45479</v>
-      </c>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="56">
+        <v>45540</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="55">
         <f t="shared" ref="Y5:Y6" si="9">W5+1</f>
-        <v>45480</v>
-      </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="56">
+        <v>45541</v>
+      </c>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="55">
         <f t="shared" ref="AA5:AA6" si="10">Y5+1</f>
-        <v>45481</v>
-      </c>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="56">
+        <v>45542</v>
+      </c>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="55">
         <f t="shared" ref="AC5:AC6" si="11">AA5+1</f>
-        <v>45482</v>
-      </c>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="56">
+        <v>45543</v>
+      </c>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="55">
         <f t="shared" ref="AE5:AE6" si="12">AC5+1</f>
-        <v>45483</v>
-      </c>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="56">
+        <v>45544</v>
+      </c>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="55">
         <f t="shared" ref="AG5:AG6" si="13">AE5+1</f>
-        <v>45484</v>
-      </c>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="56">
+        <v>45545</v>
+      </c>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="55">
         <f t="shared" ref="AI5:AI6" si="14">AG5+1</f>
-        <v>45485</v>
-      </c>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="56">
+        <v>45546</v>
+      </c>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="55">
         <f>AI5+1</f>
-        <v>45486</v>
-      </c>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="56">
+        <v>45547</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="55">
         <f t="shared" ref="AM5:AM6" si="15">AK5+1</f>
-        <v>45487</v>
-      </c>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="56">
+        <v>45548</v>
+      </c>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="55">
         <f t="shared" ref="AO5" si="16">AM5+1</f>
-        <v>45488</v>
-      </c>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="56">
+        <v>45549</v>
+      </c>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="55">
         <f t="shared" ref="AQ5" si="17">AO5+1</f>
-        <v>45489</v>
-      </c>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="56">
+        <v>45550</v>
+      </c>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="55">
         <f t="shared" ref="AS5" si="18">AQ5+1</f>
-        <v>45490</v>
-      </c>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="56">
+        <v>45551</v>
+      </c>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="55">
         <f t="shared" ref="AU5" si="19">AS5+1</f>
-        <v>45491</v>
-      </c>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="56">
+        <v>45552</v>
+      </c>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="55">
         <f t="shared" ref="AW5" si="20">AU5+1</f>
-        <v>45492</v>
-      </c>
-      <c r="AX5" s="57"/>
-      <c r="AY5" s="56">
+        <v>45553</v>
+      </c>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="55">
         <f>AW5 +1</f>
-        <v>45493</v>
-      </c>
-      <c r="AZ5" s="57"/>
-      <c r="BA5" s="56">
+        <v>45554</v>
+      </c>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="55">
         <f>AY5+1</f>
-        <v>45494</v>
-      </c>
-      <c r="BB5" s="57"/>
-      <c r="BC5" s="56">
+        <v>45555</v>
+      </c>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="55">
         <f t="shared" ref="BC5:BC6" si="21">BA5+1</f>
-        <v>45495</v>
-      </c>
-      <c r="BD5" s="57"/>
-      <c r="BE5" s="56">
+        <v>45556</v>
+      </c>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="55">
         <f t="shared" ref="BE5:BE6" si="22">BC5+1</f>
-        <v>45496</v>
-      </c>
-      <c r="BF5" s="57"/>
-      <c r="BG5" s="56">
+        <v>45557</v>
+      </c>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="55">
         <f t="shared" ref="BG5:BG6" si="23">BE5+1</f>
-        <v>45497</v>
-      </c>
-      <c r="BH5" s="57"/>
-      <c r="BI5" s="56">
+        <v>45558</v>
+      </c>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="55">
         <f t="shared" ref="BI5:BI6" si="24">BG5+1</f>
-        <v>45498</v>
-      </c>
-      <c r="BJ5" s="57"/>
-      <c r="BK5" s="56">
+        <v>45559</v>
+      </c>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="55">
         <f t="shared" ref="BK5:BK6" si="25">BI5+1</f>
-        <v>45499</v>
-      </c>
-      <c r="BL5" s="57"/>
-      <c r="BM5" s="69" t="s">
+        <v>45560</v>
+      </c>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="BN5" s="70"/>
-      <c r="BO5" s="70"/>
-      <c r="BP5" s="70"/>
-      <c r="BQ5" s="70"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="70"/>
-      <c r="BT5" s="70"/>
-      <c r="BU5" s="70"/>
-      <c r="BV5" s="71"/>
-      <c r="BW5" s="67" t="s">
+      <c r="BN5" s="69"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="69"/>
+      <c r="BS5" s="69"/>
+      <c r="BT5" s="69"/>
+      <c r="BU5" s="69"/>
+      <c r="BV5" s="70"/>
+      <c r="BW5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="BX5" s="68"/>
+      <c r="BX5" s="67"/>
     </row>
     <row r="6" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="59">
+      <c r="A6" s="75"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="58">
         <f>C3</f>
-        <v>45469</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59">
+        <v>45530</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58">
         <f>C6+1</f>
-        <v>45470</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="59">
+        <v>45531</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58">
         <f t="shared" si="0"/>
-        <v>45471</v>
-      </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="59">
+        <v>45532</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58">
         <f t="shared" si="1"/>
-        <v>45472</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="59">
+        <v>45533</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="58">
         <f t="shared" si="2"/>
-        <v>45473</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="59">
+        <v>45534</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="58">
         <f t="shared" si="3"/>
-        <v>45474</v>
-      </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="59">
+        <v>45535</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="58">
         <f t="shared" si="4"/>
-        <v>45475</v>
-      </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="59">
+        <v>45536</v>
+      </c>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="58">
         <f t="shared" si="5"/>
-        <v>45476</v>
-      </c>
-      <c r="R6" s="60"/>
-      <c r="S6" s="59">
+        <v>45537</v>
+      </c>
+      <c r="R6" s="59"/>
+      <c r="S6" s="58">
         <f t="shared" si="6"/>
-        <v>45477</v>
-      </c>
-      <c r="T6" s="60"/>
-      <c r="U6" s="59">
+        <v>45538</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="58">
         <f t="shared" si="7"/>
-        <v>45478</v>
-      </c>
-      <c r="V6" s="60"/>
-      <c r="W6" s="59">
+        <v>45539</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="58">
         <f t="shared" si="8"/>
-        <v>45479</v>
-      </c>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="59">
+        <v>45540</v>
+      </c>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="58">
         <f t="shared" si="9"/>
-        <v>45480</v>
-      </c>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="59">
+        <v>45541</v>
+      </c>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="58">
         <f t="shared" si="10"/>
-        <v>45481</v>
-      </c>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="59">
+        <v>45542</v>
+      </c>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="58">
         <f t="shared" si="11"/>
-        <v>45482</v>
-      </c>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="59">
+        <v>45543</v>
+      </c>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="58">
         <f t="shared" si="12"/>
-        <v>45483</v>
-      </c>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="59">
+        <v>45544</v>
+      </c>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="58">
         <f t="shared" si="13"/>
-        <v>45484</v>
-      </c>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="59">
+        <v>45545</v>
+      </c>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="58">
         <f t="shared" si="14"/>
-        <v>45485</v>
-      </c>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="59">
+        <v>45546</v>
+      </c>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="58">
         <f>AI6+1</f>
-        <v>45486</v>
-      </c>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="59">
+        <v>45547</v>
+      </c>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="58">
         <f t="shared" si="15"/>
-        <v>45487</v>
-      </c>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="59">
+        <v>45548</v>
+      </c>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="58">
         <f t="shared" ref="AO6" si="26">AM6+1</f>
-        <v>45488</v>
-      </c>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="59">
+        <v>45549</v>
+      </c>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="58">
         <f t="shared" ref="AQ6" si="27">AO6+1</f>
-        <v>45489</v>
-      </c>
-      <c r="AR6" s="60"/>
-      <c r="AS6" s="59">
+        <v>45550</v>
+      </c>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="58">
         <f>AQ6+1</f>
-        <v>45490</v>
-      </c>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="59">
+        <v>45551</v>
+      </c>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="58">
         <f>AS6+1</f>
-        <v>45491</v>
-      </c>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="59">
+        <v>45552</v>
+      </c>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="58">
         <f>AU6+1</f>
-        <v>45492</v>
-      </c>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="59">
+        <v>45553</v>
+      </c>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="58">
         <f t="shared" ref="AY6" si="28">AW6+1</f>
-        <v>45493</v>
-      </c>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="59">
+        <v>45554</v>
+      </c>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="58">
         <f t="shared" ref="BA6" si="29">AY6+1</f>
-        <v>45494</v>
-      </c>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="59">
+        <v>45555</v>
+      </c>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="58">
         <f t="shared" si="21"/>
-        <v>45495</v>
-      </c>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="59">
+        <v>45556</v>
+      </c>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="58">
         <f t="shared" si="22"/>
-        <v>45496</v>
-      </c>
-      <c r="BF6" s="60"/>
-      <c r="BG6" s="59">
+        <v>45557</v>
+      </c>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="58">
         <f t="shared" si="23"/>
-        <v>45497</v>
-      </c>
-      <c r="BH6" s="60"/>
-      <c r="BI6" s="59">
+        <v>45558</v>
+      </c>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="58">
         <f t="shared" si="24"/>
-        <v>45498</v>
-      </c>
-      <c r="BJ6" s="60"/>
-      <c r="BK6" s="59">
+        <v>45559</v>
+      </c>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="58">
         <f t="shared" si="25"/>
-        <v>45499</v>
-      </c>
-      <c r="BL6" s="60"/>
-      <c r="BM6" s="38" t="s">
+        <v>45560</v>
+      </c>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="BN6" s="39" t="s">
+      <c r="BN6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="BO6" s="40" t="s">
+      <c r="BO6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BP6" s="41" t="s">
+      <c r="BP6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="BQ6" s="41" t="s">
+      <c r="BQ6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="BR6" s="41" t="s">
+      <c r="BR6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="BS6" s="41" t="s">
+      <c r="BS6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="BT6" s="41" t="s">
+      <c r="BT6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="BU6" s="42" t="s">
+      <c r="BU6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="BV6" s="43" t="s">
+      <c r="BV6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="BW6" s="13" t="s">
@@ -2594,342 +3351,348 @@
       </c>
     </row>
     <row r="7" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="50"/>
-      <c r="BA7" s="50"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50"/>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="52"/>
-      <c r="BI7" s="52"/>
-      <c r="BJ7" s="52"/>
-      <c r="BK7" s="52"/>
-      <c r="BL7" s="52"/>
-      <c r="BM7" s="44">
+      <c r="A7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="43">
         <f>COUNTIF($C7:$BL7,"X")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BN7" s="44">
+      <c r="BN7" s="43">
         <f>COUNTIF($C7:$BL7,"P")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BO7" s="44">
+      <c r="BO7" s="43">
         <f>COUNTIF($C7:$BL7,"NL")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BP7" s="44">
+      <c r="BP7" s="43">
         <f>COUNTIF($C7:$BL7,"O")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BQ7" s="44">
+      <c r="BQ7" s="43">
         <f>COUNTIF($C7:$BL7,"Pr")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BR7" s="44">
+      <c r="BR7" s="43">
         <f>COUNTIF($C7:$BL7,"TS")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BS7" s="44">
+      <c r="BS7" s="43">
         <f>COUNTIF($C7:$BL7,"T")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BT7" s="44">
+      <c r="BT7" s="43">
         <f>COUNTIF($C7:$BL7,"NX")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BU7" s="44">
+      <c r="BU7" s="43">
         <f>COUNTIF($C7:$BL7,"KL")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BV7" s="44">
+      <c r="BV7" s="43">
         <f>SUM(BM7:BU7)-BP7-BR7-BS7-BU7-BT7</f>
         <v>0</v>
       </c>
       <c r="BW7" s="14"/>
-      <c r="BX7" s="14"/>
+      <c r="BX7" s="14">
+        <f>BW7-BN7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="50"/>
-      <c r="AY8" s="50"/>
-      <c r="AZ8" s="50"/>
-      <c r="BA8" s="50"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="50"/>
-      <c r="BE8" s="50"/>
-      <c r="BF8" s="50"/>
-      <c r="BG8" s="50"/>
-      <c r="BH8" s="52"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="52"/>
-      <c r="BK8" s="52"/>
-      <c r="BL8" s="52"/>
-      <c r="BM8" s="44">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="49"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="51"/>
+      <c r="BK8" s="51"/>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="43">
         <f>COUNTIF($C8:$BL8,"X")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BN8" s="44">
+      <c r="BN8" s="43">
         <f>COUNTIF($C8:$BL8,"P")*1/2</f>
         <v>0</v>
       </c>
-      <c r="BO8" s="44">
-        <f>COUNTIF($C8:$BJ8,"NL")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BP8" s="44">
-        <f>COUNTIF($C8:$BJ8,"O")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="44">
-        <f>COUNTIF($C8:$BJ8,"Pr")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BR8" s="44">
-        <f>COUNTIF($C8:$BJ8,"TS")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BS8" s="44">
-        <f>COUNTIF($C8:$BJ8,"T")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BT8" s="44">
-        <f>COUNTIF($C8:$BJ8,"NX")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BU8" s="44">
-        <f>COUNTIF($C8:$BJ8,"KL")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BV8" s="44">
+      <c r="BO8" s="43">
+        <f>COUNTIF($C8:$BL8,"NL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BP8" s="43">
+        <f>COUNTIF($C8:$BL8,"O")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="43">
+        <f>COUNTIF($C8:$BL8,"Pr")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BR8" s="43">
+        <f>COUNTIF($C8:$BL8,"TS")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BS8" s="43">
+        <f>COUNTIF($C8:$BL8,"T")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BT8" s="43">
+        <f>COUNTIF($C8:$BL8,"NX")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BU8" s="43">
+        <f>COUNTIF($C8:$BL8,"KL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="43">
         <f>SUM(BM8:BU8)-BP8-BR8-BS8-BU8-BT8</f>
         <v>0</v>
       </c>
       <c r="BW8" s="14"/>
-      <c r="BX8" s="14"/>
+      <c r="BX8" s="14">
+        <f>BW8-BN8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:107" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="84"/>
-      <c r="BD9" s="84"/>
-      <c r="BE9" s="84"/>
-      <c r="BF9" s="84"/>
-      <c r="BG9" s="84"/>
-      <c r="BH9" s="84"/>
-      <c r="BI9" s="84"/>
-      <c r="BJ9" s="84"/>
-      <c r="BK9" s="84"/>
-      <c r="BL9" s="84"/>
-      <c r="BM9" s="46">
-        <f t="shared" ref="BM9:BX9" si="30">SUM(BM8:BM8)</f>
-        <v>0</v>
-      </c>
-      <c r="BN9" s="46">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="83"/>
+      <c r="BM9" s="45">
+        <f>SUM(BM7:BM8)</f>
+        <v>0</v>
+      </c>
+      <c r="BN9" s="45">
+        <f t="shared" ref="BN9:BX9" si="30">SUM(BN7:BN8)</f>
+        <v>0</v>
+      </c>
+      <c r="BO9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BO9" s="46">
+      <c r="BP9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BP9" s="46">
+      <c r="BQ9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BQ9" s="46">
+      <c r="BR9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BR9" s="46">
+      <c r="BS9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BS9" s="46">
+      <c r="BT9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BT9" s="46">
+      <c r="BU9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BU9" s="46">
+      <c r="BV9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BV9" s="46">
+      <c r="BW9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BW9" s="46">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="BX9" s="46">
+      <c r="BX9" s="45">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:107" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="1"/>
@@ -2937,18 +3700,18 @@
       <c r="G10" s="16"/>
       <c r="I10" s="18"/>
       <c r="AC10" s="19"/>
-      <c r="BM10" s="80"/>
-      <c r="BN10" s="80"/>
-      <c r="BO10" s="80"/>
-      <c r="BP10" s="80"/>
-      <c r="BQ10" s="80"/>
-      <c r="BR10" s="80"/>
-      <c r="BS10" s="80"/>
-      <c r="BT10" s="80"/>
-      <c r="BU10" s="80"/>
-      <c r="BV10" s="80"/>
-      <c r="BW10" s="80"/>
-      <c r="BX10" s="80"/>
+      <c r="BM10" s="79"/>
+      <c r="BN10" s="79"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="79"/>
+      <c r="BR10" s="79"/>
+      <c r="BS10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
+      <c r="BW10" s="79"/>
+      <c r="BX10" s="79"/>
       <c r="BY10" s="19"/>
       <c r="BZ10" s="19"/>
       <c r="CA10" s="20"/>
@@ -2964,10 +3727,10 @@
       <c r="CK10" s="20"/>
     </row>
     <row r="11" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
@@ -2975,77 +3738,77 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="P11" s="74" t="s">
+      <c r="P11" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="26"/>
-      <c r="AD11" s="61" t="s">
+      <c r="AD11" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="61" t="s">
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="47"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="61" t="s">
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="61"/>
-      <c r="BI11" s="61"/>
-      <c r="BJ11" s="61"/>
-      <c r="BK11" s="61"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="61"/>
-      <c r="BO11" s="61"/>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
       <c r="BY11" s="27"/>
       <c r="BZ11" s="27"/>
       <c r="CB11" s="27"/>
@@ -3064,10 +3827,10 @@
       <c r="DC11" s="29"/>
     </row>
     <row r="12" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="30" t="s">
@@ -3075,11 +3838,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="25"/>
       <c r="L12" s="24" t="s">
         <v>28</v>
@@ -3129,9 +3892,9 @@
       <c r="BN12" s="25"/>
       <c r="BO12" s="26"/>
       <c r="BP12" s="26"/>
-      <c r="BQ12" s="79"/>
-      <c r="BR12" s="79"/>
-      <c r="BS12" s="79"/>
+      <c r="BQ12" s="78"/>
+      <c r="BR12" s="78"/>
+      <c r="BS12" s="78"/>
       <c r="BT12" s="27"/>
       <c r="BU12" s="27"/>
       <c r="BV12" s="27"/>
@@ -3146,10 +3909,10 @@
       <c r="CN12" s="31"/>
     </row>
     <row r="13" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="33" t="s">
@@ -3157,11 +3920,11 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="25"/>
       <c r="L13" s="24" t="s">
         <v>10</v>
@@ -3201,10 +3964,10 @@
       <c r="CI13" s="32"/>
     </row>
     <row r="14" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="73"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35" t="s">
@@ -3212,11 +3975,11 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="23"/>
       <c r="L14" s="36" t="s">
         <v>11</v>
@@ -3250,20 +4013,20 @@
       <c r="CI14" s="32"/>
     </row>
     <row r="15" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="73"/>
+      <c r="A15" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="72"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="51"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="25"/>
       <c r="L15" s="36" t="s">
         <v>12</v>
@@ -3330,13 +4093,13 @@
     </row>
     <row r="16" spans="1:107" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="22"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="25"/>
       <c r="L16" s="36" t="s">
         <v>30</v>
@@ -3438,22 +4201,22 @@
     <mergeCell ref="BC5:BD5"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BL6">
-    <cfRule type="expression" dxfId="9" priority="72">
+    <cfRule type="expression" dxfId="15" priority="72">
       <formula>$C$6="Sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$C$6="Sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$C$6="Sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK5">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$C$6="Sat"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3466,11 +4229,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DA15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC73CABE-07CB-4873-8759-05BF62A9BAB8}">
+  <dimension ref="A1:DC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="BK7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="BW7" sqref="BW7:BX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3478,66 +4245,66 @@
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
     <col min="3" max="8" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9" max="62" width="3.7109375" style="1" customWidth="1"/>
-    <col min="63" max="63" width="8" style="1" customWidth="1"/>
-    <col min="64" max="64" width="4.7109375" style="1" customWidth="1"/>
-    <col min="65" max="65" width="7.28515625" style="1" customWidth="1"/>
-    <col min="66" max="71" width="4.7109375" style="1" customWidth="1"/>
-    <col min="72" max="72" width="7.5703125" style="1" customWidth="1"/>
-    <col min="73" max="74" width="5.28515625" style="1" customWidth="1"/>
-    <col min="75" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="64" width="3.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="8" style="1" customWidth="1"/>
+    <col min="66" max="66" width="4.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="7.28515625" style="1" customWidth="1"/>
+    <col min="68" max="73" width="4.7109375" style="1" customWidth="1"/>
+    <col min="74" max="74" width="7.5703125" style="1" customWidth="1"/>
+    <col min="75" max="76" width="5.28515625" style="1" customWidth="1"/>
+    <col min="77" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" ht="27" x14ac:dyDescent="0.2">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:107" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
@@ -3564,71 +4331,73 @@
       <c r="BT1" s="2"/>
       <c r="BU1" s="2"/>
       <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
     </row>
-    <row r="2" spans="1:105" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M2" s="81" t="s">
+    <row r="2" spans="1:107" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="82">
-        <v>45474</v>
-      </c>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="81">
+        <v>45536</v>
+      </c>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
     </row>
-    <row r="3" spans="1:105" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63">
-        <v>45469</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="C3" s="62">
+        <v>45530</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="J3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
       <c r="T3" s="6"/>
       <c r="U3" s="4"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="BK3" s="54">
-        <f>BT7</f>
-        <v>23</v>
-      </c>
-      <c r="BL3" s="54"/>
-      <c r="BM3" s="53" t="s">
+      <c r="BM3" s="53">
+        <f>BV7</f>
+        <v>0</v>
+      </c>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="53"/>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="53"/>
-      <c r="BR3" s="53"/>
-      <c r="BS3" s="53"/>
-      <c r="BT3" s="53"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="52"/>
     </row>
-    <row r="4" spans="1:105" ht="27" x14ac:dyDescent="0.35">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="1:107" ht="27" x14ac:dyDescent="0.35">
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
@@ -3638,955 +4407,893 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
       <c r="U4" s="7"/>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:105" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:107" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="55">
         <f>C3</f>
-        <v>45469</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="56">
+        <v>45530</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="55">
         <f>C5+1</f>
-        <v>45470</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56">
+        <v>45531</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55">
         <f t="shared" ref="G5:G6" si="0">E5+1</f>
-        <v>45471</v>
-      </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56">
+        <v>45532</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="55">
         <f t="shared" ref="I5:I6" si="1">G5+1</f>
-        <v>45472</v>
-      </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="56">
+        <v>45533</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55">
         <f t="shared" ref="K5:K6" si="2">I5+1</f>
-        <v>45473</v>
-      </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="56">
+        <v>45534</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="55">
         <f t="shared" ref="M5:M6" si="3">K5+1</f>
-        <v>45474</v>
-      </c>
-      <c r="N5" s="57"/>
-      <c r="O5" s="56">
+        <v>45535</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="O5" s="55">
         <f t="shared" ref="O5:O6" si="4">M5+1</f>
-        <v>45475</v>
-      </c>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="56">
+        <v>45536</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="55">
         <f t="shared" ref="Q5:Q6" si="5">O5+1</f>
-        <v>45476</v>
-      </c>
-      <c r="R5" s="57"/>
-      <c r="S5" s="56">
+        <v>45537</v>
+      </c>
+      <c r="R5" s="56"/>
+      <c r="S5" s="55">
         <f t="shared" ref="S5:S6" si="6">Q5+1</f>
-        <v>45477</v>
-      </c>
-      <c r="T5" s="57"/>
-      <c r="U5" s="56">
+        <v>45538</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55">
         <f t="shared" ref="U5:U6" si="7">S5+1</f>
-        <v>45478</v>
-      </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="56">
+        <v>45539</v>
+      </c>
+      <c r="V5" s="56"/>
+      <c r="W5" s="55">
         <f t="shared" ref="W5:W6" si="8">U5+1</f>
-        <v>45479</v>
-      </c>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="56">
+        <v>45540</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="55">
         <f t="shared" ref="Y5:Y6" si="9">W5+1</f>
-        <v>45480</v>
-      </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="56">
+        <v>45541</v>
+      </c>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="55">
         <f t="shared" ref="AA5:AA6" si="10">Y5+1</f>
-        <v>45481</v>
-      </c>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="56">
+        <v>45542</v>
+      </c>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="55">
         <f t="shared" ref="AC5:AC6" si="11">AA5+1</f>
-        <v>45482</v>
-      </c>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="56">
+        <v>45543</v>
+      </c>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="55">
         <f t="shared" ref="AE5:AE6" si="12">AC5+1</f>
-        <v>45483</v>
-      </c>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="56">
+        <v>45544</v>
+      </c>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="55">
         <f t="shared" ref="AG5:AG6" si="13">AE5+1</f>
-        <v>45484</v>
-      </c>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="56">
+        <v>45545</v>
+      </c>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="55">
         <f t="shared" ref="AI5:AI6" si="14">AG5+1</f>
-        <v>45485</v>
-      </c>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="56">
+        <v>45546</v>
+      </c>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="55">
         <f>AI5+1</f>
-        <v>45486</v>
-      </c>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="56">
+        <v>45547</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="55">
         <f t="shared" ref="AM5:AM6" si="15">AK5+1</f>
-        <v>45487</v>
-      </c>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="56">
+        <v>45548</v>
+      </c>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="55">
         <f t="shared" ref="AO5:AO6" si="16">AM5+1</f>
-        <v>45488</v>
-      </c>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="56">
+        <v>45549</v>
+      </c>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="55">
         <f t="shared" ref="AQ5:AQ6" si="17">AO5+1</f>
-        <v>45489</v>
-      </c>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="56">
+        <v>45550</v>
+      </c>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="55">
         <f t="shared" ref="AS5" si="18">AQ5+1</f>
-        <v>45490</v>
-      </c>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="56">
+        <v>45551</v>
+      </c>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="55">
         <f t="shared" ref="AU5" si="19">AS5+1</f>
-        <v>45491</v>
-      </c>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="56">
+        <v>45552</v>
+      </c>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="55">
         <f t="shared" ref="AW5" si="20">AU5+1</f>
-        <v>45492</v>
-      </c>
-      <c r="AX5" s="57"/>
-      <c r="AY5" s="56">
+        <v>45553</v>
+      </c>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="55">
         <f>AW5 +1</f>
-        <v>45493</v>
-      </c>
-      <c r="AZ5" s="57"/>
-      <c r="BA5" s="56">
+        <v>45554</v>
+      </c>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="55">
         <f>AY5+1</f>
-        <v>45494</v>
-      </c>
-      <c r="BB5" s="57"/>
-      <c r="BC5" s="56">
+        <v>45555</v>
+      </c>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="55">
         <f t="shared" ref="BC5:BC6" si="21">BA5+1</f>
-        <v>45495</v>
-      </c>
-      <c r="BD5" s="57"/>
-      <c r="BE5" s="56">
+        <v>45556</v>
+      </c>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="55">
         <f t="shared" ref="BE5:BE6" si="22">BC5+1</f>
-        <v>45496</v>
-      </c>
-      <c r="BF5" s="57"/>
-      <c r="BG5" s="56">
+        <v>45557</v>
+      </c>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="55">
         <f t="shared" ref="BG5:BG6" si="23">BE5+1</f>
-        <v>45497</v>
-      </c>
-      <c r="BH5" s="57"/>
-      <c r="BI5" s="56">
+        <v>45558</v>
+      </c>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="55">
         <f t="shared" ref="BI5:BI6" si="24">BG5+1</f>
-        <v>45498</v>
-      </c>
-      <c r="BJ5" s="57"/>
-      <c r="BK5" s="69" t="s">
+        <v>45559</v>
+      </c>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="55">
+        <f t="shared" ref="BK5:BK6" si="25">BI5+1</f>
+        <v>45560</v>
+      </c>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="BL5" s="70"/>
-      <c r="BM5" s="70"/>
-      <c r="BN5" s="70"/>
-      <c r="BO5" s="70"/>
-      <c r="BP5" s="70"/>
-      <c r="BQ5" s="70"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="70"/>
-      <c r="BT5" s="71"/>
-      <c r="BU5" s="67" t="s">
+      <c r="BN5" s="69"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="69"/>
+      <c r="BS5" s="69"/>
+      <c r="BT5" s="69"/>
+      <c r="BU5" s="69"/>
+      <c r="BV5" s="70"/>
+      <c r="BW5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="BV5" s="68"/>
+      <c r="BX5" s="67"/>
     </row>
-    <row r="6" spans="1:105" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="59">
+    <row r="6" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="75"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="58">
         <f>C3</f>
-        <v>45469</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59">
+        <v>45530</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58">
         <f>C6+1</f>
-        <v>45470</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="59">
+        <v>45531</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58">
         <f t="shared" si="0"/>
-        <v>45471</v>
-      </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="59">
+        <v>45532</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58">
         <f t="shared" si="1"/>
-        <v>45472</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="59">
+        <v>45533</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="58">
         <f t="shared" si="2"/>
-        <v>45473</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="59">
+        <v>45534</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="58">
         <f t="shared" si="3"/>
-        <v>45474</v>
-      </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="59">
+        <v>45535</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="58">
         <f t="shared" si="4"/>
-        <v>45475</v>
-      </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="59">
+        <v>45536</v>
+      </c>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="58">
         <f t="shared" si="5"/>
-        <v>45476</v>
-      </c>
-      <c r="R6" s="60"/>
-      <c r="S6" s="59">
+        <v>45537</v>
+      </c>
+      <c r="R6" s="59"/>
+      <c r="S6" s="58">
         <f t="shared" si="6"/>
-        <v>45477</v>
-      </c>
-      <c r="T6" s="60"/>
-      <c r="U6" s="59">
+        <v>45538</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="58">
         <f t="shared" si="7"/>
-        <v>45478</v>
-      </c>
-      <c r="V6" s="60"/>
-      <c r="W6" s="59">
+        <v>45539</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="58">
         <f t="shared" si="8"/>
-        <v>45479</v>
-      </c>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="59">
+        <v>45540</v>
+      </c>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="58">
         <f t="shared" si="9"/>
-        <v>45480</v>
-      </c>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="59">
+        <v>45541</v>
+      </c>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="58">
         <f t="shared" si="10"/>
-        <v>45481</v>
-      </c>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="59">
+        <v>45542</v>
+      </c>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="58">
         <f t="shared" si="11"/>
-        <v>45482</v>
-      </c>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="59">
+        <v>45543</v>
+      </c>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="58">
         <f t="shared" si="12"/>
-        <v>45483</v>
-      </c>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="59">
+        <v>45544</v>
+      </c>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="58">
         <f t="shared" si="13"/>
-        <v>45484</v>
-      </c>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="59">
+        <v>45545</v>
+      </c>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="58">
         <f t="shared" si="14"/>
-        <v>45485</v>
-      </c>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="59">
+        <v>45546</v>
+      </c>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="58">
         <f>AI6+1</f>
-        <v>45486</v>
-      </c>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="59">
+        <v>45547</v>
+      </c>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="58">
         <f t="shared" si="15"/>
-        <v>45487</v>
-      </c>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="59">
+        <v>45548</v>
+      </c>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="58">
         <f t="shared" si="16"/>
-        <v>45488</v>
-      </c>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="59">
+        <v>45549</v>
+      </c>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="58">
         <f t="shared" si="17"/>
-        <v>45489</v>
-      </c>
-      <c r="AR6" s="60"/>
-      <c r="AS6" s="59">
+        <v>45550</v>
+      </c>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="58">
         <f>AQ6+1</f>
-        <v>45490</v>
-      </c>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="59">
+        <v>45551</v>
+      </c>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="58">
         <f>AS6+1</f>
-        <v>45491</v>
-      </c>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="59">
+        <v>45552</v>
+      </c>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="58">
         <f>AU6+1</f>
-        <v>45492</v>
-      </c>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="59">
-        <f t="shared" ref="AY6" si="25">AW6+1</f>
-        <v>45493</v>
-      </c>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="59">
-        <f t="shared" ref="BA6" si="26">AY6+1</f>
-        <v>45494</v>
-      </c>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="59">
+        <v>45553</v>
+      </c>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="58">
+        <f t="shared" ref="AY6" si="26">AW6+1</f>
+        <v>45554</v>
+      </c>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="58">
+        <f t="shared" ref="BA6" si="27">AY6+1</f>
+        <v>45555</v>
+      </c>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="58">
         <f t="shared" si="21"/>
-        <v>45495</v>
-      </c>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="59">
+        <v>45556</v>
+      </c>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="58">
         <f t="shared" si="22"/>
-        <v>45496</v>
-      </c>
-      <c r="BF6" s="60"/>
-      <c r="BG6" s="59">
+        <v>45557</v>
+      </c>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="58">
         <f t="shared" si="23"/>
-        <v>45497</v>
-      </c>
-      <c r="BH6" s="60"/>
-      <c r="BI6" s="59">
+        <v>45558</v>
+      </c>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="58">
         <f t="shared" si="24"/>
-        <v>45498</v>
-      </c>
-      <c r="BJ6" s="60"/>
-      <c r="BK6" s="38" t="s">
+        <v>45559</v>
+      </c>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="58">
+        <f t="shared" si="25"/>
+        <v>45560</v>
+      </c>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="BL6" s="39" t="s">
+      <c r="BN6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="BM6" s="40" t="s">
+      <c r="BO6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BN6" s="41" t="s">
+      <c r="BP6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="BO6" s="41" t="s">
+      <c r="BQ6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="BP6" s="41" t="s">
+      <c r="BR6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="BQ6" s="41" t="s">
+      <c r="BS6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="BR6" s="41" t="s">
+      <c r="BT6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="BS6" s="42" t="s">
+      <c r="BU6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="BT6" s="43" t="s">
+      <c r="BV6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BU6" s="13" t="s">
+      <c r="BW6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="BV6" s="13" t="s">
+      <c r="BX6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:105" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
-        <f>IF(B7="","",SUBTOTAL(3,$B$7:B7))</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY7" s="51"/>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="51"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK7" s="44">
-        <f>COUNTIF($C7:$BJ7,"X")*1/2</f>
-        <v>22</v>
-      </c>
-      <c r="BL7" s="44">
-        <f>COUNTIF($C7:$BJ7,"P")*1/2</f>
-        <v>1</v>
-      </c>
-      <c r="BM7" s="44">
-        <f>COUNTIF($C7:$BJ7,"NL")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BN7" s="44">
-        <f>COUNTIF($C7:$BJ7,"O")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BO7" s="44">
-        <f>COUNTIF($C7:$BJ7,"Pr")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BP7" s="44">
-        <f>COUNTIF($C7:$BJ7,"TS")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="44">
-        <f>COUNTIF($C7:$BJ7,"T")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BR7" s="44">
-        <f>COUNTIF($C7:$BJ7,"NX")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BS7" s="44">
-        <f>COUNTIF($C7:$BJ7,"KL")*1/2</f>
-        <v>0</v>
-      </c>
-      <c r="BT7" s="44">
-        <f>SUM(BK7:BS7)-BN7-BP7-BQ7-BS7-BR7</f>
-        <v>23</v>
-      </c>
-      <c r="BU7" s="14">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="14">
-        <f>BU7-BL7</f>
+    <row r="7" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="43">
+        <f>COUNTIF($C7:$BL7,"X")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BN7" s="43">
+        <f>COUNTIF($C7:$BL7,"P")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BO7" s="43">
+        <f>COUNTIF($C7:$BL7,"NL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BP7" s="43">
+        <f>COUNTIF($C7:$BL7,"O")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="43">
+        <f>COUNTIF($C7:$BL7,"Pr")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BR7" s="43">
+        <f>COUNTIF($C7:$BL7,"TS")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BS7" s="43">
+        <f>COUNTIF($C7:$BL7,"T")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BT7" s="43">
+        <f>COUNTIF($C7:$BL7,"NX")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BU7" s="43">
+        <f>COUNTIF($C7:$BL7,"KL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BV7" s="43">
+        <f>SUM(BM7:BU7)-BP7-BR7-BS7-BU7-BT7</f>
+        <v>0</v>
+      </c>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14">
+        <f>BW7-BN7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:105" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+    <row r="8" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="49"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="51"/>
+      <c r="BK8" s="51"/>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="43">
+        <f>COUNTIF($C8:$BL8,"X")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BN8" s="43">
+        <f>COUNTIF($C8:$BL8,"P")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="43">
+        <f>COUNTIF($C8:$BL8,"NL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BP8" s="43">
+        <f>COUNTIF($C8:$BL8,"O")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="43">
+        <f>COUNTIF($C8:$BL8,"Pr")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BR8" s="43">
+        <f>COUNTIF($C8:$BL8,"TS")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BS8" s="43">
+        <f>COUNTIF($C8:$BL8,"T")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BT8" s="43">
+        <f>COUNTIF($C8:$BL8,"NX")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BU8" s="43">
+        <f>COUNTIF($C8:$BL8,"KL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="43">
+        <f>SUM(BM8:BU8)-BP8-BR8-BS8-BU8-BT8</f>
+        <v>0</v>
+      </c>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14">
+        <f>BW8-BN8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="84"/>
-      <c r="AP8" s="84"/>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="84"/>
-      <c r="AU8" s="84"/>
-      <c r="AV8" s="84"/>
-      <c r="AW8" s="84"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="84"/>
-      <c r="BB8" s="84"/>
-      <c r="BC8" s="84"/>
-      <c r="BD8" s="84"/>
-      <c r="BE8" s="84"/>
-      <c r="BF8" s="84"/>
-      <c r="BG8" s="84"/>
-      <c r="BH8" s="84"/>
-      <c r="BI8" s="84"/>
-      <c r="BJ8" s="84"/>
-      <c r="BK8" s="46">
-        <f t="shared" ref="BK8:BV8" si="27">SUM(BK7:BK7)</f>
-        <v>22</v>
-      </c>
-      <c r="BL8" s="46">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="BM8" s="46">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BN8" s="46">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BO8" s="46">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BP8" s="46">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="46">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BR8" s="46">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BS8" s="46">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BT8" s="46">
-        <f t="shared" si="27"/>
-        <v>23</v>
-      </c>
-      <c r="BU8" s="46">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="BV8" s="46">
-        <f t="shared" si="27"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="83"/>
+      <c r="BM9" s="45">
+        <f>SUM(BM7:BM8)</f>
+        <v>0</v>
+      </c>
+      <c r="BN9" s="45">
+        <f t="shared" ref="BN9:BX9" si="28">SUM(BN7:BN8)</f>
+        <v>0</v>
+      </c>
+      <c r="BO9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BP9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BR9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BS9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BT9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BU9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BV9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BW9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BX9" s="45">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:105" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
+    <row r="10" spans="1:107" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="16"/>
-      <c r="I9" s="18"/>
-      <c r="AC9" s="19"/>
-      <c r="BK9" s="80"/>
-      <c r="BL9" s="80"/>
-      <c r="BM9" s="80"/>
-      <c r="BN9" s="80"/>
-      <c r="BO9" s="80"/>
-      <c r="BP9" s="80"/>
-      <c r="BQ9" s="80"/>
-      <c r="BR9" s="80"/>
-      <c r="BS9" s="80"/>
-      <c r="BT9" s="80"/>
-      <c r="BU9" s="80"/>
-      <c r="BV9" s="80"/>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20"/>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20"/>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20"/>
-      <c r="CI9" s="20"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="BM10" s="79"/>
+      <c r="BN10" s="79"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="79"/>
+      <c r="BR10" s="79"/>
+      <c r="BS10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
+      <c r="BW10" s="79"/>
+      <c r="BX10" s="79"/>
+      <c r="BY10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
+      <c r="CH10" s="20"/>
+      <c r="CI10" s="20"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
     </row>
-    <row r="10" spans="1:105" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+    <row r="11" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="P10" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="47"/>
-      <c r="AX10" s="47"/>
-      <c r="AY10" s="47"/>
-      <c r="AZ10" s="47"/>
-      <c r="BA10" s="47"/>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="47"/>
-      <c r="BD10" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="61"/>
-      <c r="BJ10" s="61"/>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BW10" s="27"/>
-      <c r="BX10" s="27"/>
-      <c r="BZ10" s="27"/>
-      <c r="CA10" s="27"/>
-      <c r="CB10" s="27"/>
-      <c r="CC10" s="27"/>
-      <c r="CD10" s="27"/>
-      <c r="CE10" s="27"/>
-      <c r="CF10" s="27"/>
-      <c r="CG10" s="27"/>
-      <c r="CH10" s="28"/>
-      <c r="CI10" s="28"/>
-      <c r="CJ10" s="27"/>
-      <c r="CK10" s="27"/>
-      <c r="CL10" s="27"/>
-      <c r="DA10" s="29"/>
-    </row>
-    <row r="11" spans="1:105" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="30" t="s">
-        <v>8</v>
+      <c r="E11" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="P11" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="31"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="25"/>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="26"/>
-      <c r="BN11" s="26"/>
-      <c r="BO11" s="79"/>
-      <c r="BP11" s="79"/>
-      <c r="BQ11" s="79"/>
-      <c r="BR11" s="27"/>
-      <c r="BS11" s="27"/>
-      <c r="BT11" s="27"/>
-      <c r="BU11" s="27"/>
-      <c r="BV11" s="27"/>
-      <c r="BW11" s="25"/>
-      <c r="CG11" s="32"/>
-      <c r="CH11" s="31"/>
-      <c r="CI11" s="31"/>
-      <c r="CJ11" s="31"/>
-      <c r="CK11" s="31"/>
-      <c r="CL11" s="31"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
+      <c r="BY11" s="27"/>
+      <c r="BZ11" s="27"/>
+      <c r="CB11" s="27"/>
+      <c r="CC11" s="27"/>
+      <c r="CD11" s="27"/>
+      <c r="CE11" s="27"/>
+      <c r="CF11" s="27"/>
+      <c r="CG11" s="27"/>
+      <c r="CH11" s="27"/>
+      <c r="CI11" s="27"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="28"/>
+      <c r="CL11" s="27"/>
+      <c r="CM11" s="27"/>
+      <c r="CN11" s="27"/>
+      <c r="DC11" s="29"/>
     </row>
-    <row r="12" spans="1:105" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="73"/>
+    <row r="12" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="72"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="33" t="s">
-        <v>13</v>
+      <c r="E12" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="H12" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="25"/>
       <c r="L12" s="24" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
       <c r="AA12" s="25"/>
@@ -4595,44 +5302,81 @@
       <c r="AD12" s="25"/>
       <c r="AE12" s="25"/>
       <c r="AF12" s="25"/>
-      <c r="BK12" s="25"/>
-      <c r="BL12" s="25"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
       <c r="BM12" s="25"/>
       <c r="BN12" s="25"/>
-      <c r="BO12" s="25"/>
-      <c r="BP12" s="25"/>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="31"/>
-      <c r="BT12" s="31"/>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="31"/>
-      <c r="BW12" s="25"/>
-      <c r="CG12" s="32"/>
+      <c r="BO12" s="26"/>
+      <c r="BP12" s="26"/>
+      <c r="BQ12" s="78"/>
+      <c r="BR12" s="78"/>
+      <c r="BS12" s="78"/>
+      <c r="BT12" s="27"/>
+      <c r="BU12" s="27"/>
+      <c r="BV12" s="27"/>
+      <c r="BW12" s="27"/>
+      <c r="BX12" s="27"/>
+      <c r="BY12" s="25"/>
+      <c r="CI12" s="32"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="31"/>
     </row>
-    <row r="13" spans="1:105" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35" t="s">
-        <v>9</v>
+    <row r="13" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="H13" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
@@ -4648,36 +5392,46 @@
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
       <c r="AF13" s="25"/>
-      <c r="BK13" s="25"/>
-      <c r="BL13" s="25"/>
       <c r="BM13" s="25"/>
       <c r="BN13" s="25"/>
       <c r="BO13" s="25"/>
       <c r="BP13" s="25"/>
-      <c r="BW13" s="25"/>
-      <c r="CG13" s="32"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="25"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="25"/>
+      <c r="CI13" s="32"/>
     </row>
-    <row r="14" spans="1:105" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
+    <row r="14" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="72"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="37"/>
+      <c r="E14" s="35" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -4693,80 +5447,130 @@
       <c r="AB14" s="25"/>
       <c r="AC14" s="25"/>
       <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
       <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="25"/>
-      <c r="BL14" s="25"/>
       <c r="BM14" s="25"/>
       <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
       <c r="BP14" s="25"/>
-      <c r="BW14" s="25"/>
-      <c r="CG14" s="32"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BY14" s="25"/>
+      <c r="CI14" s="32"/>
     </row>
-    <row r="15" spans="1:105" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+    <row r="15" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="25"/>
       <c r="L15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BY15" s="25"/>
+      <c r="CI15" s="32"/>
+    </row>
+    <row r="16" spans="1:107" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="22"/>
+      <c r="F16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="36" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="92">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="BQ12:BS12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="BM10:BX10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="BK9:BV9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="P10:Z10"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="BD10:BM10"/>
-    <mergeCell ref="A8:BJ8"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="A9:BL9"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AS6:AT6"/>
     <mergeCell ref="AU6:AV6"/>
@@ -4785,17 +5589,19 @@
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="BK5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BM5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="AM5:AN5"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="BC6:BD6"/>
     <mergeCell ref="BE6:BF6"/>
     <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI5:BJ5"/>
     <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
@@ -4817,7 +5623,7 @@
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="BM3:BT3"/>
+    <mergeCell ref="BO3:BV3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D5"/>
@@ -4827,7 +5633,7 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
@@ -4839,40 +5645,2915 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="J3:R4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BJ6">
-    <cfRule type="expression" dxfId="5" priority="36">
+  <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BL6">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>$C$6="Sat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$C$6="Sat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W7:Z7">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C$6="Sat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7:AN7">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$C$6="Sat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY7:BB7">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$C$6="Sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5">
-    <cfRule type="expression" dxfId="0" priority="21">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$C$6="Sat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.15748031496063" right="0.15748031496063" top="0.15748031496063" bottom="0.15748031496063" header="0.27" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
+  <conditionalFormatting sqref="BK5">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDAF387-D5F5-4CA7-9F37-44928A32C12B}">
+  <dimension ref="A1:DC16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="BD7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="BW7" sqref="BW7:BX8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="3.7109375" style="3" customWidth="1"/>
+    <col min="9" max="64" width="3.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="8" style="1" customWidth="1"/>
+    <col min="66" max="66" width="4.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="7.28515625" style="1" customWidth="1"/>
+    <col min="68" max="73" width="4.7109375" style="1" customWidth="1"/>
+    <col min="74" max="74" width="7.5703125" style="1" customWidth="1"/>
+    <col min="75" max="76" width="5.28515625" style="1" customWidth="1"/>
+    <col min="77" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:107" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+    </row>
+    <row r="2" spans="1:107" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="81">
+        <v>45536</v>
+      </c>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+    </row>
+    <row r="3" spans="1:107" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62">
+        <v>45530</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="J3" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="BM3" s="53">
+        <f>BV7</f>
+        <v>0</v>
+      </c>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="52"/>
+    </row>
+    <row r="4" spans="1:107" ht="27" x14ac:dyDescent="0.35">
+      <c r="B4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="7"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:107" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55">
+        <f>C3</f>
+        <v>45530</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="55">
+        <f>C5+1</f>
+        <v>45531</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55">
+        <f t="shared" ref="G5:G6" si="0">E5+1</f>
+        <v>45532</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="55">
+        <f t="shared" ref="I5:I6" si="1">G5+1</f>
+        <v>45533</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55">
+        <f t="shared" ref="K5:K6" si="2">I5+1</f>
+        <v>45534</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="55">
+        <f t="shared" ref="M5:M6" si="3">K5+1</f>
+        <v>45535</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="O5" s="55">
+        <f t="shared" ref="O5:O6" si="4">M5+1</f>
+        <v>45536</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="55">
+        <f t="shared" ref="Q5:Q6" si="5">O5+1</f>
+        <v>45537</v>
+      </c>
+      <c r="R5" s="56"/>
+      <c r="S5" s="55">
+        <f t="shared" ref="S5:S6" si="6">Q5+1</f>
+        <v>45538</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55">
+        <f t="shared" ref="U5:U6" si="7">S5+1</f>
+        <v>45539</v>
+      </c>
+      <c r="V5" s="56"/>
+      <c r="W5" s="55">
+        <f t="shared" ref="W5:W6" si="8">U5+1</f>
+        <v>45540</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="55">
+        <f t="shared" ref="Y5:Y6" si="9">W5+1</f>
+        <v>45541</v>
+      </c>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="55">
+        <f t="shared" ref="AA5:AA6" si="10">Y5+1</f>
+        <v>45542</v>
+      </c>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="55">
+        <f t="shared" ref="AC5:AC6" si="11">AA5+1</f>
+        <v>45543</v>
+      </c>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="55">
+        <f t="shared" ref="AE5:AE6" si="12">AC5+1</f>
+        <v>45544</v>
+      </c>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="55">
+        <f t="shared" ref="AG5:AG6" si="13">AE5+1</f>
+        <v>45545</v>
+      </c>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="55">
+        <f t="shared" ref="AI5:AI6" si="14">AG5+1</f>
+        <v>45546</v>
+      </c>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="55">
+        <f>AI5+1</f>
+        <v>45547</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="55">
+        <f t="shared" ref="AM5:AM6" si="15">AK5+1</f>
+        <v>45548</v>
+      </c>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="55">
+        <f t="shared" ref="AO5:AO6" si="16">AM5+1</f>
+        <v>45549</v>
+      </c>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="55">
+        <f t="shared" ref="AQ5:AQ6" si="17">AO5+1</f>
+        <v>45550</v>
+      </c>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="55">
+        <f t="shared" ref="AS5" si="18">AQ5+1</f>
+        <v>45551</v>
+      </c>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="55">
+        <f t="shared" ref="AU5" si="19">AS5+1</f>
+        <v>45552</v>
+      </c>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="55">
+        <f t="shared" ref="AW5" si="20">AU5+1</f>
+        <v>45553</v>
+      </c>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="55">
+        <f>AW5 +1</f>
+        <v>45554</v>
+      </c>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="55">
+        <f>AY5+1</f>
+        <v>45555</v>
+      </c>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="55">
+        <f t="shared" ref="BC5:BC6" si="21">BA5+1</f>
+        <v>45556</v>
+      </c>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="55">
+        <f t="shared" ref="BE5:BE6" si="22">BC5+1</f>
+        <v>45557</v>
+      </c>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="55">
+        <f t="shared" ref="BG5:BG6" si="23">BE5+1</f>
+        <v>45558</v>
+      </c>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="55">
+        <f t="shared" ref="BI5:BI6" si="24">BG5+1</f>
+        <v>45559</v>
+      </c>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="55">
+        <f t="shared" ref="BK5:BK6" si="25">BI5+1</f>
+        <v>45560</v>
+      </c>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN5" s="69"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="69"/>
+      <c r="BS5" s="69"/>
+      <c r="BT5" s="69"/>
+      <c r="BU5" s="69"/>
+      <c r="BV5" s="70"/>
+      <c r="BW5" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX5" s="67"/>
+    </row>
+    <row r="6" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="75"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="58">
+        <f>C3</f>
+        <v>45530</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58">
+        <f>C6+1</f>
+        <v>45531</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58">
+        <f t="shared" si="0"/>
+        <v>45532</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58">
+        <f t="shared" si="1"/>
+        <v>45533</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="58">
+        <f t="shared" si="2"/>
+        <v>45534</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="58">
+        <f t="shared" si="3"/>
+        <v>45535</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="58">
+        <f t="shared" si="4"/>
+        <v>45536</v>
+      </c>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="58">
+        <f t="shared" si="5"/>
+        <v>45537</v>
+      </c>
+      <c r="R6" s="59"/>
+      <c r="S6" s="58">
+        <f t="shared" si="6"/>
+        <v>45538</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="58">
+        <f t="shared" si="7"/>
+        <v>45539</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="58">
+        <f t="shared" si="8"/>
+        <v>45540</v>
+      </c>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="58">
+        <f t="shared" si="9"/>
+        <v>45541</v>
+      </c>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="58">
+        <f t="shared" si="10"/>
+        <v>45542</v>
+      </c>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="58">
+        <f t="shared" si="11"/>
+        <v>45543</v>
+      </c>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="58">
+        <f t="shared" si="12"/>
+        <v>45544</v>
+      </c>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="58">
+        <f t="shared" si="13"/>
+        <v>45545</v>
+      </c>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="58">
+        <f t="shared" si="14"/>
+        <v>45546</v>
+      </c>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="58">
+        <f>AI6+1</f>
+        <v>45547</v>
+      </c>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="58">
+        <f t="shared" si="15"/>
+        <v>45548</v>
+      </c>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="58">
+        <f t="shared" si="16"/>
+        <v>45549</v>
+      </c>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="58">
+        <f t="shared" si="17"/>
+        <v>45550</v>
+      </c>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="58">
+        <f>AQ6+1</f>
+        <v>45551</v>
+      </c>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="58">
+        <f>AS6+1</f>
+        <v>45552</v>
+      </c>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="58">
+        <f>AU6+1</f>
+        <v>45553</v>
+      </c>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="58">
+        <f t="shared" ref="AY6" si="26">AW6+1</f>
+        <v>45554</v>
+      </c>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="58">
+        <f t="shared" ref="BA6" si="27">AY6+1</f>
+        <v>45555</v>
+      </c>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="58">
+        <f t="shared" si="21"/>
+        <v>45556</v>
+      </c>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="58">
+        <f t="shared" si="22"/>
+        <v>45557</v>
+      </c>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="58">
+        <f t="shared" si="23"/>
+        <v>45558</v>
+      </c>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="58">
+        <f t="shared" si="24"/>
+        <v>45559</v>
+      </c>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="58">
+        <f t="shared" si="25"/>
+        <v>45560</v>
+      </c>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ6" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR6" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="43">
+        <f>COUNTIF($C7:$BL7,"X")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BN7" s="43">
+        <f>COUNTIF($C7:$BL7,"P")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BO7" s="43">
+        <f>COUNTIF($C7:$BL7,"NL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BP7" s="43">
+        <f>COUNTIF($C7:$BL7,"O")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="43">
+        <f>COUNTIF($C7:$BL7,"Pr")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BR7" s="43">
+        <f>COUNTIF($C7:$BL7,"TS")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BS7" s="43">
+        <f>COUNTIF($C7:$BL7,"T")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BT7" s="43">
+        <f>COUNTIF($C7:$BL7,"NX")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BU7" s="43">
+        <f>COUNTIF($C7:$BL7,"KL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BV7" s="43">
+        <f>SUM(BM7:BU7)-BP7-BR7-BS7-BU7-BT7</f>
+        <v>0</v>
+      </c>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14">
+        <f>BW7-BN7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="49"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="51"/>
+      <c r="BK8" s="51"/>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="43">
+        <f>COUNTIF($C8:$BL8,"X")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BN8" s="43">
+        <f>COUNTIF($C8:$BL8,"P")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="43">
+        <f>COUNTIF($C8:$BL8,"NL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BP8" s="43">
+        <f>COUNTIF($C8:$BL8,"O")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="43">
+        <f>COUNTIF($C8:$BL8,"Pr")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BR8" s="43">
+        <f>COUNTIF($C8:$BL8,"TS")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BS8" s="43">
+        <f>COUNTIF($C8:$BL8,"T")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BT8" s="43">
+        <f>COUNTIF($C8:$BL8,"NX")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BU8" s="43">
+        <f>COUNTIF($C8:$BL8,"KL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="43">
+        <f>SUM(BM8:BU8)-BP8-BR8-BS8-BU8-BT8</f>
+        <v>0</v>
+      </c>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14">
+        <f>BW8-BN8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="83"/>
+      <c r="BM9" s="45">
+        <f>SUM(BM7:BM8)</f>
+        <v>0</v>
+      </c>
+      <c r="BN9" s="45">
+        <f t="shared" ref="BN9:BX9" si="28">SUM(BN7:BN8)</f>
+        <v>0</v>
+      </c>
+      <c r="BO9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BP9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BR9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BS9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BT9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BU9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BV9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BW9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BX9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="BM10" s="79"/>
+      <c r="BN10" s="79"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="79"/>
+      <c r="BR10" s="79"/>
+      <c r="BS10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
+      <c r="BW10" s="79"/>
+      <c r="BX10" s="79"/>
+      <c r="BY10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
+      <c r="CH10" s="20"/>
+      <c r="CI10" s="20"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
+    </row>
+    <row r="11" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="P11" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
+      <c r="BY11" s="27"/>
+      <c r="BZ11" s="27"/>
+      <c r="CB11" s="27"/>
+      <c r="CC11" s="27"/>
+      <c r="CD11" s="27"/>
+      <c r="CE11" s="27"/>
+      <c r="CF11" s="27"/>
+      <c r="CG11" s="27"/>
+      <c r="CH11" s="27"/>
+      <c r="CI11" s="27"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="28"/>
+      <c r="CL11" s="27"/>
+      <c r="CM11" s="27"/>
+      <c r="CN11" s="27"/>
+      <c r="DC11" s="29"/>
+    </row>
+    <row r="12" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="26"/>
+      <c r="BP12" s="26"/>
+      <c r="BQ12" s="78"/>
+      <c r="BR12" s="78"/>
+      <c r="BS12" s="78"/>
+      <c r="BT12" s="27"/>
+      <c r="BU12" s="27"/>
+      <c r="BV12" s="27"/>
+      <c r="BW12" s="27"/>
+      <c r="BX12" s="27"/>
+      <c r="BY12" s="25"/>
+      <c r="CI12" s="32"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="31"/>
+    </row>
+    <row r="13" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="25"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="25"/>
+      <c r="CI13" s="32"/>
+    </row>
+    <row r="14" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BY14" s="25"/>
+      <c r="CI14" s="32"/>
+    </row>
+    <row r="15" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BY15" s="25"/>
+      <c r="CI15" s="32"/>
+    </row>
+    <row r="16" spans="1:107" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="22"/>
+      <c r="F16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="92">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="BQ12:BS12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="BM10:BX10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="A9:BL9"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="BM5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="BO3:BV3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="B1:AV1"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:R4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BL6">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI5">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK5">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09982874-969B-407D-85D0-9FDFDB1E9311}">
+  <dimension ref="A1:DC16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="BW7" sqref="BW7:BX8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="3.7109375" style="3" customWidth="1"/>
+    <col min="9" max="64" width="3.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="8" style="1" customWidth="1"/>
+    <col min="66" max="66" width="4.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="7.28515625" style="1" customWidth="1"/>
+    <col min="68" max="73" width="4.7109375" style="1" customWidth="1"/>
+    <col min="74" max="74" width="7.5703125" style="1" customWidth="1"/>
+    <col min="75" max="76" width="5.28515625" style="1" customWidth="1"/>
+    <col min="77" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:107" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+    </row>
+    <row r="2" spans="1:107" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="81">
+        <v>45536</v>
+      </c>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+    </row>
+    <row r="3" spans="1:107" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62">
+        <v>45530</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="J3" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="BM3" s="53">
+        <f>BV7</f>
+        <v>0</v>
+      </c>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="52"/>
+    </row>
+    <row r="4" spans="1:107" ht="27" x14ac:dyDescent="0.35">
+      <c r="B4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="7"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:107" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55">
+        <f>C3</f>
+        <v>45530</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="55">
+        <f>C5+1</f>
+        <v>45531</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55">
+        <f t="shared" ref="G5:G6" si="0">E5+1</f>
+        <v>45532</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="55">
+        <f t="shared" ref="I5:I6" si="1">G5+1</f>
+        <v>45533</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55">
+        <f t="shared" ref="K5:K6" si="2">I5+1</f>
+        <v>45534</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="55">
+        <f t="shared" ref="M5:M6" si="3">K5+1</f>
+        <v>45535</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="O5" s="55">
+        <f t="shared" ref="O5:O6" si="4">M5+1</f>
+        <v>45536</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="55">
+        <f t="shared" ref="Q5:Q6" si="5">O5+1</f>
+        <v>45537</v>
+      </c>
+      <c r="R5" s="56"/>
+      <c r="S5" s="55">
+        <f t="shared" ref="S5:S6" si="6">Q5+1</f>
+        <v>45538</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55">
+        <f t="shared" ref="U5:U6" si="7">S5+1</f>
+        <v>45539</v>
+      </c>
+      <c r="V5" s="56"/>
+      <c r="W5" s="55">
+        <f t="shared" ref="W5:W6" si="8">U5+1</f>
+        <v>45540</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="55">
+        <f t="shared" ref="Y5:Y6" si="9">W5+1</f>
+        <v>45541</v>
+      </c>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="55">
+        <f t="shared" ref="AA5:AA6" si="10">Y5+1</f>
+        <v>45542</v>
+      </c>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="55">
+        <f t="shared" ref="AC5:AC6" si="11">AA5+1</f>
+        <v>45543</v>
+      </c>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="55">
+        <f t="shared" ref="AE5:AE6" si="12">AC5+1</f>
+        <v>45544</v>
+      </c>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="55">
+        <f t="shared" ref="AG5:AG6" si="13">AE5+1</f>
+        <v>45545</v>
+      </c>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="55">
+        <f t="shared" ref="AI5:AI6" si="14">AG5+1</f>
+        <v>45546</v>
+      </c>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="55">
+        <f>AI5+1</f>
+        <v>45547</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="55">
+        <f t="shared" ref="AM5:AM6" si="15">AK5+1</f>
+        <v>45548</v>
+      </c>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="55">
+        <f t="shared" ref="AO5:AO6" si="16">AM5+1</f>
+        <v>45549</v>
+      </c>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="55">
+        <f t="shared" ref="AQ5:AQ6" si="17">AO5+1</f>
+        <v>45550</v>
+      </c>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="55">
+        <f t="shared" ref="AS5" si="18">AQ5+1</f>
+        <v>45551</v>
+      </c>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="55">
+        <f t="shared" ref="AU5" si="19">AS5+1</f>
+        <v>45552</v>
+      </c>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="55">
+        <f t="shared" ref="AW5" si="20">AU5+1</f>
+        <v>45553</v>
+      </c>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="55">
+        <f>AW5 +1</f>
+        <v>45554</v>
+      </c>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="55">
+        <f>AY5+1</f>
+        <v>45555</v>
+      </c>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="55">
+        <f t="shared" ref="BC5:BC6" si="21">BA5+1</f>
+        <v>45556</v>
+      </c>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="55">
+        <f t="shared" ref="BE5:BE6" si="22">BC5+1</f>
+        <v>45557</v>
+      </c>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="55">
+        <f t="shared" ref="BG5:BG6" si="23">BE5+1</f>
+        <v>45558</v>
+      </c>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="55">
+        <f t="shared" ref="BI5:BI6" si="24">BG5+1</f>
+        <v>45559</v>
+      </c>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="55">
+        <f t="shared" ref="BK5:BK6" si="25">BI5+1</f>
+        <v>45560</v>
+      </c>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN5" s="69"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="69"/>
+      <c r="BS5" s="69"/>
+      <c r="BT5" s="69"/>
+      <c r="BU5" s="69"/>
+      <c r="BV5" s="70"/>
+      <c r="BW5" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX5" s="67"/>
+    </row>
+    <row r="6" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="75"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="58">
+        <f>C3</f>
+        <v>45530</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58">
+        <f>C6+1</f>
+        <v>45531</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58">
+        <f t="shared" si="0"/>
+        <v>45532</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58">
+        <f t="shared" si="1"/>
+        <v>45533</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="58">
+        <f t="shared" si="2"/>
+        <v>45534</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="58">
+        <f t="shared" si="3"/>
+        <v>45535</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="58">
+        <f t="shared" si="4"/>
+        <v>45536</v>
+      </c>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="58">
+        <f t="shared" si="5"/>
+        <v>45537</v>
+      </c>
+      <c r="R6" s="59"/>
+      <c r="S6" s="58">
+        <f t="shared" si="6"/>
+        <v>45538</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="58">
+        <f t="shared" si="7"/>
+        <v>45539</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="58">
+        <f t="shared" si="8"/>
+        <v>45540</v>
+      </c>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="58">
+        <f t="shared" si="9"/>
+        <v>45541</v>
+      </c>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="58">
+        <f t="shared" si="10"/>
+        <v>45542</v>
+      </c>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="58">
+        <f t="shared" si="11"/>
+        <v>45543</v>
+      </c>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="58">
+        <f t="shared" si="12"/>
+        <v>45544</v>
+      </c>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="58">
+        <f t="shared" si="13"/>
+        <v>45545</v>
+      </c>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="58">
+        <f t="shared" si="14"/>
+        <v>45546</v>
+      </c>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="58">
+        <f>AI6+1</f>
+        <v>45547</v>
+      </c>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="58">
+        <f t="shared" si="15"/>
+        <v>45548</v>
+      </c>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="58">
+        <f t="shared" si="16"/>
+        <v>45549</v>
+      </c>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="58">
+        <f t="shared" si="17"/>
+        <v>45550</v>
+      </c>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="58">
+        <f>AQ6+1</f>
+        <v>45551</v>
+      </c>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="58">
+        <f>AS6+1</f>
+        <v>45552</v>
+      </c>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="58">
+        <f>AU6+1</f>
+        <v>45553</v>
+      </c>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="58">
+        <f t="shared" ref="AY6" si="26">AW6+1</f>
+        <v>45554</v>
+      </c>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="58">
+        <f t="shared" ref="BA6" si="27">AY6+1</f>
+        <v>45555</v>
+      </c>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="58">
+        <f t="shared" si="21"/>
+        <v>45556</v>
+      </c>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="58">
+        <f t="shared" si="22"/>
+        <v>45557</v>
+      </c>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="58">
+        <f t="shared" si="23"/>
+        <v>45558</v>
+      </c>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="58">
+        <f t="shared" si="24"/>
+        <v>45559</v>
+      </c>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="58">
+        <f t="shared" si="25"/>
+        <v>45560</v>
+      </c>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ6" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR6" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="43">
+        <f>COUNTIF($C7:$BL7,"X")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BN7" s="43">
+        <f>COUNTIF($C7:$BL7,"P")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BO7" s="43">
+        <f>COUNTIF($C7:$BL7,"NL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BP7" s="43">
+        <f>COUNTIF($C7:$BL7,"O")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="43">
+        <f>COUNTIF($C7:$BL7,"Pr")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BR7" s="43">
+        <f>COUNTIF($C7:$BL7,"TS")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BS7" s="43">
+        <f>COUNTIF($C7:$BL7,"T")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BT7" s="43">
+        <f>COUNTIF($C7:$BL7,"NX")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BU7" s="43">
+        <f>COUNTIF($C7:$BL7,"KL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BV7" s="43">
+        <f>SUM(BM7:BU7)-BP7-BR7-BS7-BU7-BT7</f>
+        <v>0</v>
+      </c>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14">
+        <f>BW7-BN7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="49"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="51"/>
+      <c r="BK8" s="51"/>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="43">
+        <f>COUNTIF($C8:$BL8,"X")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BN8" s="43">
+        <f>COUNTIF($C8:$BL8,"P")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="43">
+        <f>COUNTIF($C8:$BL8,"NL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BP8" s="43">
+        <f>COUNTIF($C8:$BL8,"O")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="43">
+        <f>COUNTIF($C8:$BL8,"Pr")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BR8" s="43">
+        <f>COUNTIF($C8:$BL8,"TS")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BS8" s="43">
+        <f>COUNTIF($C8:$BL8,"T")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BT8" s="43">
+        <f>COUNTIF($C8:$BL8,"NX")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BU8" s="43">
+        <f>COUNTIF($C8:$BL8,"KL")*1/2</f>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="43">
+        <f>SUM(BM8:BU8)-BP8-BR8-BS8-BU8-BT8</f>
+        <v>0</v>
+      </c>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14">
+        <f>BW8-BN8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="83"/>
+      <c r="BM9" s="45">
+        <f>SUM(BM7:BM8)</f>
+        <v>0</v>
+      </c>
+      <c r="BN9" s="45">
+        <f t="shared" ref="BN9:BX9" si="28">SUM(BN7:BN8)</f>
+        <v>0</v>
+      </c>
+      <c r="BO9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BP9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BR9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BS9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BT9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BU9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BV9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BW9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BX9" s="45">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="BM10" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN10" s="79"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="79"/>
+      <c r="BR10" s="79"/>
+      <c r="BS10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
+      <c r="BW10" s="79"/>
+      <c r="BX10" s="79"/>
+      <c r="BY10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
+      <c r="CH10" s="20"/>
+      <c r="CI10" s="20"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
+    </row>
+    <row r="11" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="P11" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE11" s="60"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="60"/>
+      <c r="BI11" s="60"/>
+      <c r="BJ11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
+      <c r="BY11" s="27"/>
+      <c r="BZ11" s="27"/>
+      <c r="CB11" s="27"/>
+      <c r="CC11" s="27"/>
+      <c r="CD11" s="27"/>
+      <c r="CE11" s="27"/>
+      <c r="CF11" s="27"/>
+      <c r="CG11" s="27"/>
+      <c r="CH11" s="27"/>
+      <c r="CI11" s="27"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="28"/>
+      <c r="CL11" s="27"/>
+      <c r="CM11" s="27"/>
+      <c r="CN11" s="27"/>
+      <c r="DC11" s="29"/>
+    </row>
+    <row r="12" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="26"/>
+      <c r="BP12" s="26"/>
+      <c r="BQ12" s="78"/>
+      <c r="BR12" s="78"/>
+      <c r="BS12" s="78"/>
+      <c r="BT12" s="27"/>
+      <c r="BU12" s="27"/>
+      <c r="BV12" s="27"/>
+      <c r="BW12" s="27"/>
+      <c r="BX12" s="27"/>
+      <c r="BY12" s="25"/>
+      <c r="CI12" s="32"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="31"/>
+    </row>
+    <row r="13" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="25"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="25"/>
+      <c r="CI13" s="32"/>
+    </row>
+    <row r="14" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BY14" s="25"/>
+      <c r="CI14" s="32"/>
+    </row>
+    <row r="15" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BY15" s="25"/>
+      <c r="CI15" s="32"/>
+    </row>
+    <row r="16" spans="1:107" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="22"/>
+      <c r="F16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="92">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="BQ12:BS12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="BM10:BX10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="A9:BL9"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="BM5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="BO3:BV3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="B1:AV1"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:R4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BL6">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI5">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK5">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C$6="Sat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/it_api/wwwroot/report/excel/Bảng chấm công.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng chấm công.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC4FA6-22B5-4F3C-8DC1-E72F812237CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030F9C68-B03C-46DB-BF5A-F10880584386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhân viên" sheetId="9" r:id="rId1"/>
@@ -952,7 +952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="40">
   <si>
     <t>Hiệu lực từ ngày</t>
   </si>
@@ -1764,15 +1764,6 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -1780,9 +1771,6 @@
     <xf numFmtId="167" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1792,23 +1780,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="20" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="20" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1828,44 +1843,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="33" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2811,55 +2811,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="27" x14ac:dyDescent="0.2">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
@@ -2890,66 +2890,66 @@
       <c r="BX1" s="2"/>
     </row>
     <row r="2" spans="1:107" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="81">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58">
         <v>45536</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
     </row>
     <row r="3" spans="1:107" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="77">
         <v>45530</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="J3" s="64" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="J3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
       <c r="T3" s="6"/>
       <c r="U3" s="4"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="BM3" s="53">
+      <c r="BM3" s="82">
         <f>BV7</f>
         <v>0</v>
       </c>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="52" t="s">
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="81"/>
+      <c r="BT3" s="81"/>
+      <c r="BU3" s="81"/>
+      <c r="BV3" s="81"/>
     </row>
     <row r="4" spans="1:107" ht="27" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
@@ -2962,357 +2962,357 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
       <c r="U4" s="7"/>
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:107" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="52">
         <f>C3</f>
         <v>45530</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52">
         <f>C5+1</f>
         <v>45531</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55">
+      <c r="F5" s="53"/>
+      <c r="G5" s="52">
         <f t="shared" ref="G5:G6" si="0">E5+1</f>
         <v>45532</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="55">
+      <c r="H5" s="53"/>
+      <c r="I5" s="52">
         <f t="shared" ref="I5:I6" si="1">G5+1</f>
         <v>45533</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="55">
+      <c r="J5" s="53"/>
+      <c r="K5" s="52">
         <f t="shared" ref="K5:K6" si="2">I5+1</f>
         <v>45534</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="55">
+      <c r="L5" s="53"/>
+      <c r="M5" s="52">
         <f t="shared" ref="M5:M6" si="3">K5+1</f>
         <v>45535</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="55">
+      <c r="N5" s="53"/>
+      <c r="O5" s="52">
         <f t="shared" ref="O5:O6" si="4">M5+1</f>
         <v>45536</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="55">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="52">
         <f t="shared" ref="Q5:Q6" si="5">O5+1</f>
         <v>45537</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="55">
+      <c r="R5" s="53"/>
+      <c r="S5" s="52">
         <f t="shared" ref="S5:S6" si="6">Q5+1</f>
         <v>45538</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="55">
+      <c r="T5" s="53"/>
+      <c r="U5" s="52">
         <f t="shared" ref="U5:U6" si="7">S5+1</f>
         <v>45539</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="55">
+      <c r="V5" s="53"/>
+      <c r="W5" s="52">
         <f t="shared" ref="W5:W6" si="8">U5+1</f>
         <v>45540</v>
       </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="55">
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52">
         <f t="shared" ref="Y5:Y6" si="9">W5+1</f>
         <v>45541</v>
       </c>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="55">
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52">
         <f t="shared" ref="AA5:AA6" si="10">Y5+1</f>
         <v>45542</v>
       </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="55">
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="52">
         <f t="shared" ref="AC5:AC6" si="11">AA5+1</f>
         <v>45543</v>
       </c>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="55">
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="52">
         <f t="shared" ref="AE5:AE6" si="12">AC5+1</f>
         <v>45544</v>
       </c>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="55">
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="52">
         <f t="shared" ref="AG5:AG6" si="13">AE5+1</f>
         <v>45545</v>
       </c>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="55">
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="52">
         <f t="shared" ref="AI5:AI6" si="14">AG5+1</f>
         <v>45546</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="55">
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="52">
         <f>AI5+1</f>
         <v>45547</v>
       </c>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="55">
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="52">
         <f t="shared" ref="AM5:AM6" si="15">AK5+1</f>
         <v>45548</v>
       </c>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="55">
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="52">
         <f t="shared" ref="AO5" si="16">AM5+1</f>
         <v>45549</v>
       </c>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="55">
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="52">
         <f t="shared" ref="AQ5" si="17">AO5+1</f>
         <v>45550</v>
       </c>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="55">
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="52">
         <f t="shared" ref="AS5" si="18">AQ5+1</f>
         <v>45551</v>
       </c>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="55">
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="52">
         <f t="shared" ref="AU5" si="19">AS5+1</f>
         <v>45552</v>
       </c>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="55">
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="52">
         <f t="shared" ref="AW5" si="20">AU5+1</f>
         <v>45553</v>
       </c>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="55">
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="52">
         <f>AW5 +1</f>
         <v>45554</v>
       </c>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="55">
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="52">
         <f>AY5+1</f>
         <v>45555</v>
       </c>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="55">
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="52">
         <f t="shared" ref="BC5:BC6" si="21">BA5+1</f>
         <v>45556</v>
       </c>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="55">
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="52">
         <f t="shared" ref="BE5:BE6" si="22">BC5+1</f>
         <v>45557</v>
       </c>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="55">
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="52">
         <f t="shared" ref="BG5:BG6" si="23">BE5+1</f>
         <v>45558</v>
       </c>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="55">
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="52">
         <f t="shared" ref="BI5:BI6" si="24">BG5+1</f>
         <v>45559</v>
       </c>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="55">
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="52">
         <f t="shared" ref="BK5:BK6" si="25">BI5+1</f>
         <v>45560</v>
       </c>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="68" t="s">
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="70"/>
-      <c r="BW5" s="66" t="s">
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="74"/>
+      <c r="BP5" s="74"/>
+      <c r="BQ5" s="74"/>
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="74"/>
+      <c r="BV5" s="75"/>
+      <c r="BW5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="BX5" s="67"/>
+      <c r="BX5" s="72"/>
     </row>
     <row r="6" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="58">
+      <c r="A6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="54">
         <f>C3</f>
         <v>45530</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54">
         <f>C6+1</f>
         <v>45531</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58">
+      <c r="F6" s="55"/>
+      <c r="G6" s="54">
         <f t="shared" si="0"/>
         <v>45532</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58">
+      <c r="H6" s="55"/>
+      <c r="I6" s="54">
         <f t="shared" si="1"/>
         <v>45533</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="58">
+      <c r="J6" s="55"/>
+      <c r="K6" s="54">
         <f t="shared" si="2"/>
         <v>45534</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="58">
+      <c r="L6" s="55"/>
+      <c r="M6" s="54">
         <f t="shared" si="3"/>
         <v>45535</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="58">
+      <c r="N6" s="55"/>
+      <c r="O6" s="54">
         <f t="shared" si="4"/>
         <v>45536</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="58">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54">
         <f t="shared" si="5"/>
         <v>45537</v>
       </c>
-      <c r="R6" s="59"/>
-      <c r="S6" s="58">
+      <c r="R6" s="55"/>
+      <c r="S6" s="54">
         <f t="shared" si="6"/>
         <v>45538</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="58">
+      <c r="T6" s="55"/>
+      <c r="U6" s="54">
         <f t="shared" si="7"/>
         <v>45539</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="58">
+      <c r="V6" s="55"/>
+      <c r="W6" s="54">
         <f t="shared" si="8"/>
         <v>45540</v>
       </c>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="58">
+      <c r="X6" s="55"/>
+      <c r="Y6" s="54">
         <f t="shared" si="9"/>
         <v>45541</v>
       </c>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="58">
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="54">
         <f t="shared" si="10"/>
         <v>45542</v>
       </c>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="58">
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="54">
         <f t="shared" si="11"/>
         <v>45543</v>
       </c>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="58">
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="54">
         <f t="shared" si="12"/>
         <v>45544</v>
       </c>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="58">
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="54">
         <f t="shared" si="13"/>
         <v>45545</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="58">
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="54">
         <f t="shared" si="14"/>
         <v>45546</v>
       </c>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="58">
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="54">
         <f>AI6+1</f>
         <v>45547</v>
       </c>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="58">
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="54">
         <f t="shared" si="15"/>
         <v>45548</v>
       </c>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="58">
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="54">
         <f t="shared" ref="AO6" si="26">AM6+1</f>
         <v>45549</v>
       </c>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="58">
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="54">
         <f t="shared" ref="AQ6" si="27">AO6+1</f>
         <v>45550</v>
       </c>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="58">
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="54">
         <f>AQ6+1</f>
         <v>45551</v>
       </c>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="58">
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="54">
         <f>AS6+1</f>
         <v>45552</v>
       </c>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="58">
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="54">
         <f>AU6+1</f>
         <v>45553</v>
       </c>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="58">
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="54">
         <f t="shared" ref="AY6" si="28">AW6+1</f>
         <v>45554</v>
       </c>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="58">
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="54">
         <f t="shared" ref="BA6" si="29">AY6+1</f>
         <v>45555</v>
       </c>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="58">
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="54">
         <f t="shared" si="21"/>
         <v>45556</v>
       </c>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="58">
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="54">
         <f t="shared" si="22"/>
         <v>45557</v>
       </c>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="58">
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="54">
         <f t="shared" si="23"/>
         <v>45558</v>
       </c>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="58">
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="54">
         <f t="shared" si="24"/>
         <v>45559</v>
       </c>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="58">
+      <c r="BJ6" s="55"/>
+      <c r="BK6" s="54">
         <f t="shared" si="25"/>
         <v>45560</v>
       </c>
-      <c r="BL6" s="59"/>
+      <c r="BL6" s="55"/>
       <c r="BM6" s="37" t="s">
         <v>7</v>
       </c>
@@ -3573,72 +3573,72 @@
       </c>
     </row>
     <row r="9" spans="1:107" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="83"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="60"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="60"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
       <c r="BM9" s="45">
         <f>SUM(BM7:BM8)</f>
         <v>0</v>
@@ -3689,10 +3689,10 @@
       </c>
     </row>
     <row r="10" spans="1:107" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="1"/>
@@ -3700,18 +3700,18 @@
       <c r="G10" s="16"/>
       <c r="I10" s="18"/>
       <c r="AC10" s="19"/>
-      <c r="BM10" s="79"/>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BR10" s="79"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="79"/>
-      <c r="BX10" s="79"/>
+      <c r="BM10" s="63"/>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="63"/>
+      <c r="BQ10" s="63"/>
+      <c r="BR10" s="63"/>
+      <c r="BS10" s="63"/>
+      <c r="BT10" s="63"/>
+      <c r="BU10" s="63"/>
+      <c r="BV10" s="63"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="63"/>
       <c r="BY10" s="19"/>
       <c r="BZ10" s="19"/>
       <c r="CA10" s="20"/>
@@ -3727,10 +3727,10 @@
       <c r="CK10" s="20"/>
     </row>
     <row r="11" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
@@ -3738,56 +3738,56 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="P11" s="73" t="s">
+      <c r="P11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="26"/>
-      <c r="AD11" s="60" t="s">
+      <c r="AD11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="62"/>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
       <c r="AN11" s="46"/>
-      <c r="AO11" s="60" t="s">
+      <c r="AO11" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
       <c r="AW11" s="46"/>
       <c r="AX11" s="46"/>
       <c r="AY11" s="46"/>
@@ -3795,20 +3795,20 @@
       <c r="BA11" s="46"/>
       <c r="BB11" s="46"/>
       <c r="BC11" s="46"/>
-      <c r="BD11" s="60" t="s">
+      <c r="BD11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="62"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="62"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="62"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="62"/>
       <c r="BY11" s="27"/>
       <c r="BZ11" s="27"/>
       <c r="CB11" s="27"/>
@@ -3827,10 +3827,10 @@
       <c r="DC11" s="29"/>
     </row>
     <row r="12" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="30" t="s">
@@ -3838,11 +3838,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="25"/>
       <c r="L12" s="24" t="s">
         <v>28</v>
@@ -3892,9 +3892,9 @@
       <c r="BN12" s="25"/>
       <c r="BO12" s="26"/>
       <c r="BP12" s="26"/>
-      <c r="BQ12" s="78"/>
-      <c r="BR12" s="78"/>
-      <c r="BS12" s="78"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="61"/>
+      <c r="BS12" s="61"/>
       <c r="BT12" s="27"/>
       <c r="BU12" s="27"/>
       <c r="BV12" s="27"/>
@@ -3909,10 +3909,10 @@
       <c r="CN12" s="31"/>
     </row>
     <row r="13" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="33" t="s">
@@ -3920,11 +3920,11 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="25"/>
       <c r="L13" s="24" t="s">
         <v>10</v>
@@ -3964,10 +3964,10 @@
       <c r="CI13" s="32"/>
     </row>
     <row r="14" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35" t="s">
@@ -3975,11 +3975,11 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="23"/>
       <c r="L14" s="36" t="s">
         <v>11</v>
@@ -4013,20 +4013,20 @@
       <c r="CI14" s="32"/>
     </row>
     <row r="15" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="50"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="25"/>
       <c r="L15" s="36" t="s">
         <v>12</v>
@@ -4093,13 +4093,13 @@
     </row>
     <row r="16" spans="1:107" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="22"/>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="25"/>
       <c r="L16" s="36" t="s">
         <v>30</v>
@@ -4107,13 +4107,75 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BO3:BV3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="B1:AV1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="BM5:BV5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="BQ12:BS12"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="BM10:BX10"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BI6:BJ6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="M2:T2"/>
@@ -4130,75 +4192,13 @@
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="A9:BL9"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="BQ12:BS12"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="BD11:BO11"/>
-    <mergeCell ref="BM10:BX10"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="P11:Z11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="BM5:BV5"/>
-    <mergeCell ref="B1:AV1"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="J3:R4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BO3:BV3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI5:BJ5"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BL6">
     <cfRule type="expression" dxfId="15" priority="72">
@@ -4256,55 +4256,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="27" x14ac:dyDescent="0.2">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
@@ -4335,66 +4335,66 @@
       <c r="BX1" s="2"/>
     </row>
     <row r="2" spans="1:107" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="81">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58">
         <v>45536</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
     </row>
     <row r="3" spans="1:107" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="77">
         <v>45530</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="J3" s="64" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="J3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
       <c r="T3" s="6"/>
       <c r="U3" s="4"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="BM3" s="53">
+      <c r="BM3" s="82">
         <f>BV7</f>
         <v>0</v>
       </c>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="52" t="s">
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="81"/>
+      <c r="BT3" s="81"/>
+      <c r="BU3" s="81"/>
+      <c r="BV3" s="81"/>
     </row>
     <row r="4" spans="1:107" ht="27" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
@@ -4407,357 +4407,357 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
       <c r="U4" s="7"/>
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:107" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="52">
         <f>C3</f>
         <v>45530</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52">
         <f>C5+1</f>
         <v>45531</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55">
+      <c r="F5" s="53"/>
+      <c r="G5" s="52">
         <f t="shared" ref="G5:G6" si="0">E5+1</f>
         <v>45532</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="55">
+      <c r="H5" s="53"/>
+      <c r="I5" s="52">
         <f t="shared" ref="I5:I6" si="1">G5+1</f>
         <v>45533</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="55">
+      <c r="J5" s="53"/>
+      <c r="K5" s="52">
         <f t="shared" ref="K5:K6" si="2">I5+1</f>
         <v>45534</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="55">
+      <c r="L5" s="53"/>
+      <c r="M5" s="52">
         <f t="shared" ref="M5:M6" si="3">K5+1</f>
         <v>45535</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="55">
+      <c r="N5" s="53"/>
+      <c r="O5" s="52">
         <f t="shared" ref="O5:O6" si="4">M5+1</f>
         <v>45536</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="55">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="52">
         <f t="shared" ref="Q5:Q6" si="5">O5+1</f>
         <v>45537</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="55">
+      <c r="R5" s="53"/>
+      <c r="S5" s="52">
         <f t="shared" ref="S5:S6" si="6">Q5+1</f>
         <v>45538</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="55">
+      <c r="T5" s="53"/>
+      <c r="U5" s="52">
         <f t="shared" ref="U5:U6" si="7">S5+1</f>
         <v>45539</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="55">
+      <c r="V5" s="53"/>
+      <c r="W5" s="52">
         <f t="shared" ref="W5:W6" si="8">U5+1</f>
         <v>45540</v>
       </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="55">
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52">
         <f t="shared" ref="Y5:Y6" si="9">W5+1</f>
         <v>45541</v>
       </c>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="55">
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52">
         <f t="shared" ref="AA5:AA6" si="10">Y5+1</f>
         <v>45542</v>
       </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="55">
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="52">
         <f t="shared" ref="AC5:AC6" si="11">AA5+1</f>
         <v>45543</v>
       </c>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="55">
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="52">
         <f t="shared" ref="AE5:AE6" si="12">AC5+1</f>
         <v>45544</v>
       </c>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="55">
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="52">
         <f t="shared" ref="AG5:AG6" si="13">AE5+1</f>
         <v>45545</v>
       </c>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="55">
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="52">
         <f t="shared" ref="AI5:AI6" si="14">AG5+1</f>
         <v>45546</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="55">
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="52">
         <f>AI5+1</f>
         <v>45547</v>
       </c>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="55">
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="52">
         <f t="shared" ref="AM5:AM6" si="15">AK5+1</f>
         <v>45548</v>
       </c>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="55">
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="52">
         <f t="shared" ref="AO5:AO6" si="16">AM5+1</f>
         <v>45549</v>
       </c>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="55">
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="52">
         <f t="shared" ref="AQ5:AQ6" si="17">AO5+1</f>
         <v>45550</v>
       </c>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="55">
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="52">
         <f t="shared" ref="AS5" si="18">AQ5+1</f>
         <v>45551</v>
       </c>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="55">
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="52">
         <f t="shared" ref="AU5" si="19">AS5+1</f>
         <v>45552</v>
       </c>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="55">
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="52">
         <f t="shared" ref="AW5" si="20">AU5+1</f>
         <v>45553</v>
       </c>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="55">
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="52">
         <f>AW5 +1</f>
         <v>45554</v>
       </c>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="55">
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="52">
         <f>AY5+1</f>
         <v>45555</v>
       </c>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="55">
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="52">
         <f t="shared" ref="BC5:BC6" si="21">BA5+1</f>
         <v>45556</v>
       </c>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="55">
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="52">
         <f t="shared" ref="BE5:BE6" si="22">BC5+1</f>
         <v>45557</v>
       </c>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="55">
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="52">
         <f t="shared" ref="BG5:BG6" si="23">BE5+1</f>
         <v>45558</v>
       </c>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="55">
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="52">
         <f t="shared" ref="BI5:BI6" si="24">BG5+1</f>
         <v>45559</v>
       </c>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="55">
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="52">
         <f t="shared" ref="BK5:BK6" si="25">BI5+1</f>
         <v>45560</v>
       </c>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="68" t="s">
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="70"/>
-      <c r="BW5" s="66" t="s">
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="74"/>
+      <c r="BP5" s="74"/>
+      <c r="BQ5" s="74"/>
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="74"/>
+      <c r="BV5" s="75"/>
+      <c r="BW5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="BX5" s="67"/>
+      <c r="BX5" s="72"/>
     </row>
     <row r="6" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="58">
+      <c r="A6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="54">
         <f>C3</f>
         <v>45530</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54">
         <f>C6+1</f>
         <v>45531</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58">
+      <c r="F6" s="55"/>
+      <c r="G6" s="54">
         <f t="shared" si="0"/>
         <v>45532</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58">
+      <c r="H6" s="55"/>
+      <c r="I6" s="54">
         <f t="shared" si="1"/>
         <v>45533</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="58">
+      <c r="J6" s="55"/>
+      <c r="K6" s="54">
         <f t="shared" si="2"/>
         <v>45534</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="58">
+      <c r="L6" s="55"/>
+      <c r="M6" s="54">
         <f t="shared" si="3"/>
         <v>45535</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="58">
+      <c r="N6" s="55"/>
+      <c r="O6" s="54">
         <f t="shared" si="4"/>
         <v>45536</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="58">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54">
         <f t="shared" si="5"/>
         <v>45537</v>
       </c>
-      <c r="R6" s="59"/>
-      <c r="S6" s="58">
+      <c r="R6" s="55"/>
+      <c r="S6" s="54">
         <f t="shared" si="6"/>
         <v>45538</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="58">
+      <c r="T6" s="55"/>
+      <c r="U6" s="54">
         <f t="shared" si="7"/>
         <v>45539</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="58">
+      <c r="V6" s="55"/>
+      <c r="W6" s="54">
         <f t="shared" si="8"/>
         <v>45540</v>
       </c>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="58">
+      <c r="X6" s="55"/>
+      <c r="Y6" s="54">
         <f t="shared" si="9"/>
         <v>45541</v>
       </c>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="58">
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="54">
         <f t="shared" si="10"/>
         <v>45542</v>
       </c>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="58">
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="54">
         <f t="shared" si="11"/>
         <v>45543</v>
       </c>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="58">
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="54">
         <f t="shared" si="12"/>
         <v>45544</v>
       </c>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="58">
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="54">
         <f t="shared" si="13"/>
         <v>45545</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="58">
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="54">
         <f t="shared" si="14"/>
         <v>45546</v>
       </c>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="58">
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="54">
         <f>AI6+1</f>
         <v>45547</v>
       </c>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="58">
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="54">
         <f t="shared" si="15"/>
         <v>45548</v>
       </c>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="58">
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="54">
         <f t="shared" si="16"/>
         <v>45549</v>
       </c>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="58">
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="54">
         <f t="shared" si="17"/>
         <v>45550</v>
       </c>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="58">
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="54">
         <f>AQ6+1</f>
         <v>45551</v>
       </c>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="58">
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="54">
         <f>AS6+1</f>
         <v>45552</v>
       </c>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="58">
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="54">
         <f>AU6+1</f>
         <v>45553</v>
       </c>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="58">
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="54">
         <f t="shared" ref="AY6" si="26">AW6+1</f>
         <v>45554</v>
       </c>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="58">
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="54">
         <f t="shared" ref="BA6" si="27">AY6+1</f>
         <v>45555</v>
       </c>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="58">
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="54">
         <f t="shared" si="21"/>
         <v>45556</v>
       </c>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="58">
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="54">
         <f t="shared" si="22"/>
         <v>45557</v>
       </c>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="58">
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="54">
         <f t="shared" si="23"/>
         <v>45558</v>
       </c>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="58">
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="54">
         <f t="shared" si="24"/>
         <v>45559</v>
       </c>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="58">
+      <c r="BJ6" s="55"/>
+      <c r="BK6" s="54">
         <f t="shared" si="25"/>
         <v>45560</v>
       </c>
-      <c r="BL6" s="59"/>
+      <c r="BL6" s="55"/>
       <c r="BM6" s="37" t="s">
         <v>7</v>
       </c>
@@ -5018,72 +5018,72 @@
       </c>
     </row>
     <row r="9" spans="1:107" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="83"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="60"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="60"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
       <c r="BM9" s="45">
         <f>SUM(BM7:BM8)</f>
         <v>0</v>
@@ -5134,10 +5134,10 @@
       </c>
     </row>
     <row r="10" spans="1:107" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="1"/>
@@ -5145,18 +5145,18 @@
       <c r="G10" s="16"/>
       <c r="I10" s="18"/>
       <c r="AC10" s="19"/>
-      <c r="BM10" s="79"/>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BR10" s="79"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="79"/>
-      <c r="BX10" s="79"/>
+      <c r="BM10" s="63"/>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="63"/>
+      <c r="BQ10" s="63"/>
+      <c r="BR10" s="63"/>
+      <c r="BS10" s="63"/>
+      <c r="BT10" s="63"/>
+      <c r="BU10" s="63"/>
+      <c r="BV10" s="63"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="63"/>
       <c r="BY10" s="19"/>
       <c r="BZ10" s="19"/>
       <c r="CA10" s="20"/>
@@ -5172,10 +5172,10 @@
       <c r="CK10" s="20"/>
     </row>
     <row r="11" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
@@ -5183,56 +5183,56 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="P11" s="73" t="s">
+      <c r="P11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="26"/>
-      <c r="AD11" s="60" t="s">
+      <c r="AD11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="62"/>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
       <c r="AN11" s="46"/>
-      <c r="AO11" s="60" t="s">
+      <c r="AO11" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
       <c r="AW11" s="46"/>
       <c r="AX11" s="46"/>
       <c r="AY11" s="46"/>
@@ -5240,20 +5240,20 @@
       <c r="BA11" s="46"/>
       <c r="BB11" s="46"/>
       <c r="BC11" s="46"/>
-      <c r="BD11" s="60" t="s">
+      <c r="BD11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="62"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="62"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="62"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="62"/>
       <c r="BY11" s="27"/>
       <c r="BZ11" s="27"/>
       <c r="CB11" s="27"/>
@@ -5272,10 +5272,10 @@
       <c r="DC11" s="29"/>
     </row>
     <row r="12" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="30" t="s">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="25"/>
       <c r="L12" s="24" t="s">
         <v>28</v>
@@ -5337,9 +5337,9 @@
       <c r="BN12" s="25"/>
       <c r="BO12" s="26"/>
       <c r="BP12" s="26"/>
-      <c r="BQ12" s="78"/>
-      <c r="BR12" s="78"/>
-      <c r="BS12" s="78"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="61"/>
+      <c r="BS12" s="61"/>
       <c r="BT12" s="27"/>
       <c r="BU12" s="27"/>
       <c r="BV12" s="27"/>
@@ -5354,10 +5354,10 @@
       <c r="CN12" s="31"/>
     </row>
     <row r="13" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="33" t="s">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="25"/>
       <c r="L13" s="24" t="s">
         <v>10</v>
@@ -5409,10 +5409,10 @@
       <c r="CI13" s="32"/>
     </row>
     <row r="14" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35" t="s">
@@ -5420,11 +5420,11 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="23"/>
       <c r="L14" s="36" t="s">
         <v>11</v>
@@ -5458,20 +5458,20 @@
       <c r="CI14" s="32"/>
     </row>
     <row r="15" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="50"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="25"/>
       <c r="L15" s="36" t="s">
         <v>12</v>
@@ -5538,13 +5538,13 @@
     </row>
     <row r="16" spans="1:107" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="22"/>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="25"/>
       <c r="L16" s="36" t="s">
         <v>30</v>
@@ -5552,24 +5552,64 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="BQ12:BS12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="BM10:BX10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="P11:Z11"/>
-    <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="B1:AV1"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="BO3:BV3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="BM5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
     <mergeCell ref="A9:BL9"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AS6:AT6"/>
@@ -5586,64 +5626,24 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="BM5:BV5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="BO3:BV3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="B1:AV1"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="BM10:BX10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="BQ12:BS12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BL6">
     <cfRule type="expression" dxfId="11" priority="4">
@@ -5699,55 +5699,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="27" x14ac:dyDescent="0.2">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
@@ -5778,66 +5778,66 @@
       <c r="BX1" s="2"/>
     </row>
     <row r="2" spans="1:107" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="81">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58">
         <v>45536</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
     </row>
     <row r="3" spans="1:107" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="77">
         <v>45530</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="J3" s="64" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="J3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
       <c r="T3" s="6"/>
       <c r="U3" s="4"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="BM3" s="53">
+      <c r="BM3" s="82">
         <f>BV7</f>
         <v>0</v>
       </c>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="52" t="s">
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="81"/>
+      <c r="BT3" s="81"/>
+      <c r="BU3" s="81"/>
+      <c r="BV3" s="81"/>
     </row>
     <row r="4" spans="1:107" ht="27" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
@@ -5850,357 +5850,357 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
       <c r="U4" s="7"/>
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:107" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="52">
         <f>C3</f>
         <v>45530</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52">
         <f>C5+1</f>
         <v>45531</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55">
+      <c r="F5" s="53"/>
+      <c r="G5" s="52">
         <f t="shared" ref="G5:G6" si="0">E5+1</f>
         <v>45532</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="55">
+      <c r="H5" s="53"/>
+      <c r="I5" s="52">
         <f t="shared" ref="I5:I6" si="1">G5+1</f>
         <v>45533</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="55">
+      <c r="J5" s="53"/>
+      <c r="K5" s="52">
         <f t="shared" ref="K5:K6" si="2">I5+1</f>
         <v>45534</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="55">
+      <c r="L5" s="53"/>
+      <c r="M5" s="52">
         <f t="shared" ref="M5:M6" si="3">K5+1</f>
         <v>45535</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="55">
+      <c r="N5" s="53"/>
+      <c r="O5" s="52">
         <f t="shared" ref="O5:O6" si="4">M5+1</f>
         <v>45536</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="55">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="52">
         <f t="shared" ref="Q5:Q6" si="5">O5+1</f>
         <v>45537</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="55">
+      <c r="R5" s="53"/>
+      <c r="S5" s="52">
         <f t="shared" ref="S5:S6" si="6">Q5+1</f>
         <v>45538</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="55">
+      <c r="T5" s="53"/>
+      <c r="U5" s="52">
         <f t="shared" ref="U5:U6" si="7">S5+1</f>
         <v>45539</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="55">
+      <c r="V5" s="53"/>
+      <c r="W5" s="52">
         <f t="shared" ref="W5:W6" si="8">U5+1</f>
         <v>45540</v>
       </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="55">
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52">
         <f t="shared" ref="Y5:Y6" si="9">W5+1</f>
         <v>45541</v>
       </c>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="55">
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52">
         <f t="shared" ref="AA5:AA6" si="10">Y5+1</f>
         <v>45542</v>
       </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="55">
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="52">
         <f t="shared" ref="AC5:AC6" si="11">AA5+1</f>
         <v>45543</v>
       </c>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="55">
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="52">
         <f t="shared" ref="AE5:AE6" si="12">AC5+1</f>
         <v>45544</v>
       </c>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="55">
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="52">
         <f t="shared" ref="AG5:AG6" si="13">AE5+1</f>
         <v>45545</v>
       </c>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="55">
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="52">
         <f t="shared" ref="AI5:AI6" si="14">AG5+1</f>
         <v>45546</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="55">
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="52">
         <f>AI5+1</f>
         <v>45547</v>
       </c>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="55">
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="52">
         <f t="shared" ref="AM5:AM6" si="15">AK5+1</f>
         <v>45548</v>
       </c>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="55">
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="52">
         <f t="shared" ref="AO5:AO6" si="16">AM5+1</f>
         <v>45549</v>
       </c>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="55">
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="52">
         <f t="shared" ref="AQ5:AQ6" si="17">AO5+1</f>
         <v>45550</v>
       </c>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="55">
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="52">
         <f t="shared" ref="AS5" si="18">AQ5+1</f>
         <v>45551</v>
       </c>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="55">
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="52">
         <f t="shared" ref="AU5" si="19">AS5+1</f>
         <v>45552</v>
       </c>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="55">
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="52">
         <f t="shared" ref="AW5" si="20">AU5+1</f>
         <v>45553</v>
       </c>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="55">
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="52">
         <f>AW5 +1</f>
         <v>45554</v>
       </c>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="55">
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="52">
         <f>AY5+1</f>
         <v>45555</v>
       </c>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="55">
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="52">
         <f t="shared" ref="BC5:BC6" si="21">BA5+1</f>
         <v>45556</v>
       </c>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="55">
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="52">
         <f t="shared" ref="BE5:BE6" si="22">BC5+1</f>
         <v>45557</v>
       </c>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="55">
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="52">
         <f t="shared" ref="BG5:BG6" si="23">BE5+1</f>
         <v>45558</v>
       </c>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="55">
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="52">
         <f t="shared" ref="BI5:BI6" si="24">BG5+1</f>
         <v>45559</v>
       </c>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="55">
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="52">
         <f t="shared" ref="BK5:BK6" si="25">BI5+1</f>
         <v>45560</v>
       </c>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="68" t="s">
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="70"/>
-      <c r="BW5" s="66" t="s">
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="74"/>
+      <c r="BP5" s="74"/>
+      <c r="BQ5" s="74"/>
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="74"/>
+      <c r="BV5" s="75"/>
+      <c r="BW5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="BX5" s="67"/>
+      <c r="BX5" s="72"/>
     </row>
     <row r="6" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="58">
+      <c r="A6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="54">
         <f>C3</f>
         <v>45530</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54">
         <f>C6+1</f>
         <v>45531</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58">
+      <c r="F6" s="55"/>
+      <c r="G6" s="54">
         <f t="shared" si="0"/>
         <v>45532</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58">
+      <c r="H6" s="55"/>
+      <c r="I6" s="54">
         <f t="shared" si="1"/>
         <v>45533</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="58">
+      <c r="J6" s="55"/>
+      <c r="K6" s="54">
         <f t="shared" si="2"/>
         <v>45534</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="58">
+      <c r="L6" s="55"/>
+      <c r="M6" s="54">
         <f t="shared" si="3"/>
         <v>45535</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="58">
+      <c r="N6" s="55"/>
+      <c r="O6" s="54">
         <f t="shared" si="4"/>
         <v>45536</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="58">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54">
         <f t="shared" si="5"/>
         <v>45537</v>
       </c>
-      <c r="R6" s="59"/>
-      <c r="S6" s="58">
+      <c r="R6" s="55"/>
+      <c r="S6" s="54">
         <f t="shared" si="6"/>
         <v>45538</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="58">
+      <c r="T6" s="55"/>
+      <c r="U6" s="54">
         <f t="shared" si="7"/>
         <v>45539</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="58">
+      <c r="V6" s="55"/>
+      <c r="W6" s="54">
         <f t="shared" si="8"/>
         <v>45540</v>
       </c>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="58">
+      <c r="X6" s="55"/>
+      <c r="Y6" s="54">
         <f t="shared" si="9"/>
         <v>45541</v>
       </c>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="58">
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="54">
         <f t="shared" si="10"/>
         <v>45542</v>
       </c>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="58">
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="54">
         <f t="shared" si="11"/>
         <v>45543</v>
       </c>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="58">
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="54">
         <f t="shared" si="12"/>
         <v>45544</v>
       </c>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="58">
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="54">
         <f t="shared" si="13"/>
         <v>45545</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="58">
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="54">
         <f t="shared" si="14"/>
         <v>45546</v>
       </c>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="58">
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="54">
         <f>AI6+1</f>
         <v>45547</v>
       </c>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="58">
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="54">
         <f t="shared" si="15"/>
         <v>45548</v>
       </c>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="58">
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="54">
         <f t="shared" si="16"/>
         <v>45549</v>
       </c>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="58">
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="54">
         <f t="shared" si="17"/>
         <v>45550</v>
       </c>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="58">
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="54">
         <f>AQ6+1</f>
         <v>45551</v>
       </c>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="58">
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="54">
         <f>AS6+1</f>
         <v>45552</v>
       </c>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="58">
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="54">
         <f>AU6+1</f>
         <v>45553</v>
       </c>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="58">
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="54">
         <f t="shared" ref="AY6" si="26">AW6+1</f>
         <v>45554</v>
       </c>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="58">
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="54">
         <f t="shared" ref="BA6" si="27">AY6+1</f>
         <v>45555</v>
       </c>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="58">
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="54">
         <f t="shared" si="21"/>
         <v>45556</v>
       </c>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="58">
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="54">
         <f t="shared" si="22"/>
         <v>45557</v>
       </c>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="58">
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="54">
         <f t="shared" si="23"/>
         <v>45558</v>
       </c>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="58">
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="54">
         <f t="shared" si="24"/>
         <v>45559</v>
       </c>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="58">
+      <c r="BJ6" s="55"/>
+      <c r="BK6" s="54">
         <f t="shared" si="25"/>
         <v>45560</v>
       </c>
-      <c r="BL6" s="59"/>
+      <c r="BL6" s="55"/>
       <c r="BM6" s="37" t="s">
         <v>7</v>
       </c>
@@ -6461,72 +6461,72 @@
       </c>
     </row>
     <row r="9" spans="1:107" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="83"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="60"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="60"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
       <c r="BM9" s="45">
         <f>SUM(BM7:BM8)</f>
         <v>0</v>
@@ -6577,10 +6577,10 @@
       </c>
     </row>
     <row r="10" spans="1:107" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="1"/>
@@ -6588,18 +6588,18 @@
       <c r="G10" s="16"/>
       <c r="I10" s="18"/>
       <c r="AC10" s="19"/>
-      <c r="BM10" s="79"/>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BR10" s="79"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="79"/>
-      <c r="BX10" s="79"/>
+      <c r="BM10" s="63"/>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="63"/>
+      <c r="BQ10" s="63"/>
+      <c r="BR10" s="63"/>
+      <c r="BS10" s="63"/>
+      <c r="BT10" s="63"/>
+      <c r="BU10" s="63"/>
+      <c r="BV10" s="63"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="63"/>
       <c r="BY10" s="19"/>
       <c r="BZ10" s="19"/>
       <c r="CA10" s="20"/>
@@ -6615,10 +6615,10 @@
       <c r="CK10" s="20"/>
     </row>
     <row r="11" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
@@ -6626,56 +6626,56 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="P11" s="73" t="s">
+      <c r="P11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="26"/>
-      <c r="AD11" s="60" t="s">
+      <c r="AD11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="62"/>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
       <c r="AN11" s="46"/>
-      <c r="AO11" s="60" t="s">
+      <c r="AO11" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
       <c r="AW11" s="46"/>
       <c r="AX11" s="46"/>
       <c r="AY11" s="46"/>
@@ -6683,20 +6683,20 @@
       <c r="BA11" s="46"/>
       <c r="BB11" s="46"/>
       <c r="BC11" s="46"/>
-      <c r="BD11" s="60" t="s">
+      <c r="BD11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="62"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="62"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="62"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="62"/>
       <c r="BY11" s="27"/>
       <c r="BZ11" s="27"/>
       <c r="CB11" s="27"/>
@@ -6715,10 +6715,10 @@
       <c r="DC11" s="29"/>
     </row>
     <row r="12" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="30" t="s">
@@ -6726,11 +6726,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="25"/>
       <c r="L12" s="24" t="s">
         <v>28</v>
@@ -6780,9 +6780,9 @@
       <c r="BN12" s="25"/>
       <c r="BO12" s="26"/>
       <c r="BP12" s="26"/>
-      <c r="BQ12" s="78"/>
-      <c r="BR12" s="78"/>
-      <c r="BS12" s="78"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="61"/>
+      <c r="BS12" s="61"/>
       <c r="BT12" s="27"/>
       <c r="BU12" s="27"/>
       <c r="BV12" s="27"/>
@@ -6797,10 +6797,10 @@
       <c r="CN12" s="31"/>
     </row>
     <row r="13" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="33" t="s">
@@ -6808,11 +6808,11 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="25"/>
       <c r="L13" s="24" t="s">
         <v>10</v>
@@ -6852,10 +6852,10 @@
       <c r="CI13" s="32"/>
     </row>
     <row r="14" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35" t="s">
@@ -6863,11 +6863,11 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="23"/>
       <c r="L14" s="36" t="s">
         <v>11</v>
@@ -6901,20 +6901,20 @@
       <c r="CI14" s="32"/>
     </row>
     <row r="15" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="50"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="25"/>
       <c r="L15" s="36" t="s">
         <v>12</v>
@@ -6981,13 +6981,13 @@
     </row>
     <row r="16" spans="1:107" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="22"/>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="25"/>
       <c r="L16" s="36" t="s">
         <v>30</v>
@@ -6995,24 +6995,64 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="BQ12:BS12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="BM10:BX10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="P11:Z11"/>
-    <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="B1:AV1"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="BO3:BV3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="BM5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
     <mergeCell ref="A9:BL9"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AS6:AT6"/>
@@ -7029,64 +7069,24 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="BM5:BV5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="BO3:BV3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="B1:AV1"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="BM10:BX10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="BQ12:BS12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BL6">
     <cfRule type="expression" dxfId="7" priority="4">
@@ -7119,10 +7119,10 @@
   <dimension ref="A1:DC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BW7" sqref="BW7:BX8"/>
+      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7141,55 +7141,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="27" x14ac:dyDescent="0.2">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
@@ -7220,66 +7220,64 @@
       <c r="BX1" s="2"/>
     </row>
     <row r="2" spans="1:107" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="81">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58">
         <v>45536</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
     </row>
     <row r="3" spans="1:107" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="77">
         <v>45530</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="J3" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
       <c r="T3" s="6"/>
       <c r="U3" s="4"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="BM3" s="53">
+      <c r="BM3" s="82">
         <f>BV7</f>
         <v>0</v>
       </c>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="52" t="s">
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="81"/>
+      <c r="BT3" s="81"/>
+      <c r="BU3" s="81"/>
+      <c r="BV3" s="81"/>
     </row>
     <row r="4" spans="1:107" ht="27" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
@@ -7292,357 +7290,357 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
       <c r="S4" s="10"/>
       <c r="T4" s="11"/>
       <c r="U4" s="7"/>
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:107" s="12" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="52">
         <f>C3</f>
         <v>45530</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55">
+      <c r="D5" s="53"/>
+      <c r="E5" s="52">
         <f>C5+1</f>
         <v>45531</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55">
+      <c r="F5" s="53"/>
+      <c r="G5" s="52">
         <f t="shared" ref="G5:G6" si="0">E5+1</f>
         <v>45532</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="55">
+      <c r="H5" s="53"/>
+      <c r="I5" s="52">
         <f t="shared" ref="I5:I6" si="1">G5+1</f>
         <v>45533</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="55">
+      <c r="J5" s="53"/>
+      <c r="K5" s="52">
         <f t="shared" ref="K5:K6" si="2">I5+1</f>
         <v>45534</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="55">
+      <c r="L5" s="53"/>
+      <c r="M5" s="52">
         <f t="shared" ref="M5:M6" si="3">K5+1</f>
         <v>45535</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="55">
+      <c r="N5" s="53"/>
+      <c r="O5" s="52">
         <f t="shared" ref="O5:O6" si="4">M5+1</f>
         <v>45536</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="55">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="52">
         <f t="shared" ref="Q5:Q6" si="5">O5+1</f>
         <v>45537</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="55">
+      <c r="R5" s="53"/>
+      <c r="S5" s="52">
         <f t="shared" ref="S5:S6" si="6">Q5+1</f>
         <v>45538</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="55">
+      <c r="T5" s="53"/>
+      <c r="U5" s="52">
         <f t="shared" ref="U5:U6" si="7">S5+1</f>
         <v>45539</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="55">
+      <c r="V5" s="53"/>
+      <c r="W5" s="52">
         <f t="shared" ref="W5:W6" si="8">U5+1</f>
         <v>45540</v>
       </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="55">
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52">
         <f t="shared" ref="Y5:Y6" si="9">W5+1</f>
         <v>45541</v>
       </c>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="55">
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52">
         <f t="shared" ref="AA5:AA6" si="10">Y5+1</f>
         <v>45542</v>
       </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="55">
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="52">
         <f t="shared" ref="AC5:AC6" si="11">AA5+1</f>
         <v>45543</v>
       </c>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="55">
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="52">
         <f t="shared" ref="AE5:AE6" si="12">AC5+1</f>
         <v>45544</v>
       </c>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="55">
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="52">
         <f t="shared" ref="AG5:AG6" si="13">AE5+1</f>
         <v>45545</v>
       </c>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="55">
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="52">
         <f t="shared" ref="AI5:AI6" si="14">AG5+1</f>
         <v>45546</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="55">
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="52">
         <f>AI5+1</f>
         <v>45547</v>
       </c>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="55">
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="52">
         <f t="shared" ref="AM5:AM6" si="15">AK5+1</f>
         <v>45548</v>
       </c>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="55">
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="52">
         <f t="shared" ref="AO5:AO6" si="16">AM5+1</f>
         <v>45549</v>
       </c>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="55">
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="52">
         <f t="shared" ref="AQ5:AQ6" si="17">AO5+1</f>
         <v>45550</v>
       </c>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="55">
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="52">
         <f t="shared" ref="AS5" si="18">AQ5+1</f>
         <v>45551</v>
       </c>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="55">
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="52">
         <f t="shared" ref="AU5" si="19">AS5+1</f>
         <v>45552</v>
       </c>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="55">
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="52">
         <f t="shared" ref="AW5" si="20">AU5+1</f>
         <v>45553</v>
       </c>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="55">
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="52">
         <f>AW5 +1</f>
         <v>45554</v>
       </c>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="55">
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="52">
         <f>AY5+1</f>
         <v>45555</v>
       </c>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="55">
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="52">
         <f t="shared" ref="BC5:BC6" si="21">BA5+1</f>
         <v>45556</v>
       </c>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="55">
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="52">
         <f t="shared" ref="BE5:BE6" si="22">BC5+1</f>
         <v>45557</v>
       </c>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="55">
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="52">
         <f t="shared" ref="BG5:BG6" si="23">BE5+1</f>
         <v>45558</v>
       </c>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="55">
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="52">
         <f t="shared" ref="BI5:BI6" si="24">BG5+1</f>
         <v>45559</v>
       </c>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="55">
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="52">
         <f t="shared" ref="BK5:BK6" si="25">BI5+1</f>
         <v>45560</v>
       </c>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="68" t="s">
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="70"/>
-      <c r="BW5" s="66" t="s">
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="74"/>
+      <c r="BP5" s="74"/>
+      <c r="BQ5" s="74"/>
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="74"/>
+      <c r="BV5" s="75"/>
+      <c r="BW5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="BX5" s="67"/>
+      <c r="BX5" s="72"/>
     </row>
     <row r="6" spans="1:107" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="58">
+      <c r="A6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="54">
         <f>C3</f>
         <v>45530</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="58">
+      <c r="D6" s="55"/>
+      <c r="E6" s="54">
         <f>C6+1</f>
         <v>45531</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58">
+      <c r="F6" s="55"/>
+      <c r="G6" s="54">
         <f t="shared" si="0"/>
         <v>45532</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58">
+      <c r="H6" s="55"/>
+      <c r="I6" s="54">
         <f t="shared" si="1"/>
         <v>45533</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="58">
+      <c r="J6" s="55"/>
+      <c r="K6" s="54">
         <f t="shared" si="2"/>
         <v>45534</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="58">
+      <c r="L6" s="55"/>
+      <c r="M6" s="54">
         <f t="shared" si="3"/>
         <v>45535</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="58">
+      <c r="N6" s="55"/>
+      <c r="O6" s="54">
         <f t="shared" si="4"/>
         <v>45536</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="58">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54">
         <f t="shared" si="5"/>
         <v>45537</v>
       </c>
-      <c r="R6" s="59"/>
-      <c r="S6" s="58">
+      <c r="R6" s="55"/>
+      <c r="S6" s="54">
         <f t="shared" si="6"/>
         <v>45538</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="58">
+      <c r="T6" s="55"/>
+      <c r="U6" s="54">
         <f t="shared" si="7"/>
         <v>45539</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="58">
+      <c r="V6" s="55"/>
+      <c r="W6" s="54">
         <f t="shared" si="8"/>
         <v>45540</v>
       </c>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="58">
+      <c r="X6" s="55"/>
+      <c r="Y6" s="54">
         <f t="shared" si="9"/>
         <v>45541</v>
       </c>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="58">
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="54">
         <f t="shared" si="10"/>
         <v>45542</v>
       </c>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="58">
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="54">
         <f t="shared" si="11"/>
         <v>45543</v>
       </c>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="58">
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="54">
         <f t="shared" si="12"/>
         <v>45544</v>
       </c>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="58">
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="54">
         <f t="shared" si="13"/>
         <v>45545</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="58">
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="54">
         <f t="shared" si="14"/>
         <v>45546</v>
       </c>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="58">
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="54">
         <f>AI6+1</f>
         <v>45547</v>
       </c>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="58">
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="54">
         <f t="shared" si="15"/>
         <v>45548</v>
       </c>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="58">
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="54">
         <f t="shared" si="16"/>
         <v>45549</v>
       </c>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="58">
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="54">
         <f t="shared" si="17"/>
         <v>45550</v>
       </c>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="58">
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="54">
         <f>AQ6+1</f>
         <v>45551</v>
       </c>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="58">
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="54">
         <f>AS6+1</f>
         <v>45552</v>
       </c>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="58">
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="54">
         <f>AU6+1</f>
         <v>45553</v>
       </c>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="58">
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="54">
         <f t="shared" ref="AY6" si="26">AW6+1</f>
         <v>45554</v>
       </c>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="58">
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="54">
         <f t="shared" ref="BA6" si="27">AY6+1</f>
         <v>45555</v>
       </c>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="58">
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="54">
         <f t="shared" si="21"/>
         <v>45556</v>
       </c>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="58">
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="54">
         <f t="shared" si="22"/>
         <v>45557</v>
       </c>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="58">
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="54">
         <f t="shared" si="23"/>
         <v>45558</v>
       </c>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="58">
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="54">
         <f t="shared" si="24"/>
         <v>45559</v>
       </c>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="58">
+      <c r="BJ6" s="55"/>
+      <c r="BK6" s="54">
         <f t="shared" si="25"/>
         <v>45560</v>
       </c>
-      <c r="BL6" s="59"/>
+      <c r="BL6" s="55"/>
       <c r="BM6" s="37" t="s">
         <v>7</v>
       </c>
@@ -7903,72 +7901,72 @@
       </c>
     </row>
     <row r="9" spans="1:107" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="83"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="60"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="60"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
       <c r="BM9" s="45">
         <f>SUM(BM7:BM8)</f>
         <v>0</v>
@@ -8019,10 +8017,10 @@
       </c>
     </row>
     <row r="10" spans="1:107" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="1"/>
@@ -8030,20 +8028,20 @@
       <c r="G10" s="16"/>
       <c r="I10" s="18"/>
       <c r="AC10" s="19"/>
-      <c r="BM10" s="79" t="s">
+      <c r="BM10" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="79"/>
-      <c r="BR10" s="79"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="79"/>
-      <c r="BX10" s="79"/>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="63"/>
+      <c r="BQ10" s="63"/>
+      <c r="BR10" s="63"/>
+      <c r="BS10" s="63"/>
+      <c r="BT10" s="63"/>
+      <c r="BU10" s="63"/>
+      <c r="BV10" s="63"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="63"/>
       <c r="BY10" s="19"/>
       <c r="BZ10" s="19"/>
       <c r="CA10" s="20"/>
@@ -8059,10 +8057,10 @@
       <c r="CK10" s="20"/>
     </row>
     <row r="11" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
@@ -8070,56 +8068,56 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="P11" s="73" t="s">
+      <c r="P11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="26"/>
-      <c r="AD11" s="60" t="s">
+      <c r="AD11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="62"/>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
       <c r="AN11" s="46"/>
-      <c r="AO11" s="60" t="s">
+      <c r="AO11" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
       <c r="AW11" s="46"/>
       <c r="AX11" s="46"/>
       <c r="AY11" s="46"/>
@@ -8127,20 +8125,20 @@
       <c r="BA11" s="46"/>
       <c r="BB11" s="46"/>
       <c r="BC11" s="46"/>
-      <c r="BD11" s="60" t="s">
+      <c r="BD11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="62"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="62"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="62"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="62"/>
       <c r="BY11" s="27"/>
       <c r="BZ11" s="27"/>
       <c r="CB11" s="27"/>
@@ -8159,10 +8157,10 @@
       <c r="DC11" s="29"/>
     </row>
     <row r="12" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="30" t="s">
@@ -8170,11 +8168,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="25"/>
       <c r="L12" s="24" t="s">
         <v>28</v>
@@ -8224,9 +8222,9 @@
       <c r="BN12" s="25"/>
       <c r="BO12" s="26"/>
       <c r="BP12" s="26"/>
-      <c r="BQ12" s="78"/>
-      <c r="BR12" s="78"/>
-      <c r="BS12" s="78"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="61"/>
+      <c r="BS12" s="61"/>
       <c r="BT12" s="27"/>
       <c r="BU12" s="27"/>
       <c r="BV12" s="27"/>
@@ -8241,10 +8239,10 @@
       <c r="CN12" s="31"/>
     </row>
     <row r="13" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="33" t="s">
@@ -8252,11 +8250,11 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="25"/>
       <c r="L13" s="24" t="s">
         <v>10</v>
@@ -8296,10 +8294,10 @@
       <c r="CI13" s="32"/>
     </row>
     <row r="14" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35" t="s">
@@ -8307,11 +8305,11 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="23"/>
       <c r="L14" s="36" t="s">
         <v>11</v>
@@ -8345,20 +8343,20 @@
       <c r="CI14" s="32"/>
     </row>
     <row r="15" spans="1:107" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="50"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="25"/>
       <c r="L15" s="36" t="s">
         <v>12</v>
@@ -8425,13 +8423,13 @@
     </row>
     <row r="16" spans="1:107" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="22"/>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="25"/>
       <c r="L16" s="36" t="s">
         <v>30</v>
@@ -8439,24 +8437,64 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="BQ12:BS12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="BM10:BX10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="P11:Z11"/>
-    <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="B1:AV1"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="BO3:BV3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="BM5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
     <mergeCell ref="A9:BL9"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AS6:AT6"/>
@@ -8473,64 +8511,24 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="BM5:BV5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="BO3:BV3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="B1:AV1"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="BM10:BX10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="AD11:AK11"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="BD11:BO11"/>
+    <mergeCell ref="BQ12:BS12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:AY5 BA5 BC5 BE5 BG5 C6:BL6">
     <cfRule type="expression" dxfId="3" priority="4">
